--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1380" windowWidth="23900" windowHeight="14320"/>
+    <workbookView xWindow="600" yWindow="680" windowWidth="23900" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1025,16 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1小时15分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>55分钟</t>
     <rPh sb="2" eb="3">
       <t>fen'zhong</t>
@@ -1108,37 +1098,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2小时25分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时45分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen'zhon</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4/22/16 19:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时58分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fen'zho</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1157,78 +1117,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1小时10分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
+    <t>4/22/16 17:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 18:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 18:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 22:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 19:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185分钟</t>
+    <rPh sb="3" eb="4">
+      <t>fen'zhong</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105分钟</t>
+    <rPh sb="3" eb="4">
+      <t>fen'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118分钟</t>
+    <rPh sb="3" eb="4">
+      <t>fen'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70分钟</t>
+    <rPh sb="2" eb="3">
       <t>fen'zh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 17:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时59分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <t>179分钟</t>
+    <rPh sb="3" eb="4">
       <t>fen'z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 18:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时28分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <t>148分钟</t>
+    <rPh sb="3" eb="4">
       <t>fen'z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 18:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/22/16 22:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2小时50分钟</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <t>170分钟</t>
+    <rPh sb="3" eb="4">
       <t>fen'z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 19:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/22/16 22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1小时</t>
-    <rPh sb="1" eb="2">
-      <t>xiao'shi</t>
+    <t>75分钟</t>
+    <rPh sb="2" eb="3">
+      <t>fen'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 19:30</t>
+    <t>60分钟</t>
+    <rPh sb="2" eb="3">
+      <t>fen'z</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1773,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1766,7 @@
     <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="14" max="14" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1902,13 +1878,13 @@
         <v>291</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>305</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2103,10 +2079,10 @@
         <v>305</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2146,13 +2122,13 @@
         <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2313,13 +2289,13 @@
         <v>42483.274305555555</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2728,13 +2704,13 @@
         <v>290</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>305</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2771,16 +2747,16 @@
         <v>42483.298611111109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="N29" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2941,13 +2917,13 @@
         <v>290</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2990,7 +2966,7 @@
         <v>304</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>306</v>
@@ -3185,13 +3161,13 @@
         <v>293</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3491,13 +3467,13 @@
         <v>293</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3766,13 +3742,13 @@
         <v>293</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3815,10 +3791,10 @@
         <v>305</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4103,13 +4079,13 @@
         <v>293</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4152,10 +4128,10 @@
         <v>305</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4626,13 +4602,13 @@
         <v>293</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -4672,13 +4648,13 @@
         <v>307</v>
       </c>
       <c r="L85" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M85" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="M85" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="N85" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4935,13 +4911,13 @@
         <v>307</v>
       </c>
       <c r="L93" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M93" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="M93" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="N93" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="680" windowWidth="23900" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1094,10 +1094,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4/22/16 22:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4/22/16 19:25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,13 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>185分钟</t>
-    <rPh sb="3" eb="4">
-      <t>fen'zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>105分钟</t>
     <rPh sb="3" eb="4">
       <t>fen'zhong</t>
@@ -1205,6 +1194,17 @@
     <rPh sb="2" eb="3">
       <t>fen'z</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50分钟</t>
+    <rPh sb="2" eb="3">
+      <t>fen'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 19:25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2076,13 +2076,13 @@
         <v>292</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
         <v>290</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>305</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>42483.298611111109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>321</v>
@@ -2917,13 +2917,13 @@
         <v>290</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M34" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
         <v>304</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>306</v>
@@ -3161,13 +3161,13 @@
         <v>293</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3467,13 +3467,13 @@
         <v>293</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3742,13 +3742,13 @@
         <v>293</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>305</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>314</v>
@@ -4079,13 +4079,13 @@
         <v>293</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4128,10 +4128,10 @@
         <v>305</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4602,13 +4602,13 @@
         <v>293</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>304</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="7" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -25302,7 +25302,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="8300" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C63" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I57" workbookViewId="0">
+      <selection activeCell="I41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,6 +1288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,6 +1395,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1749,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I57" workbookViewId="0">
-      <selection activeCell="I41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4351,33 +4366,33 @@
         <v>42482.670833333337</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+    <row r="77" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
         <v>174773642</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="12">
         <v>1461359400</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="12">
         <v>1461368400</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="D77" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G77" s="8" t="s">
+      <c r="F77" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="14">
         <f t="shared" si="4"/>
         <v>42482.881944444445</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="14">
         <f t="shared" si="5"/>
         <v>42482.986111111109</v>
       </c>

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="5160" yWindow="500" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3453,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M98"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6565,41 +6565,41 @@
         <v>42482.670833333337</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="45">
+    <row r="77" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
         <v>174773642</v>
       </c>
-      <c r="B77" s="45">
+      <c r="B77" s="7">
         <v>1461359400</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="7">
         <v>1461368400</v>
       </c>
-      <c r="D77" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="46" t="s">
+      <c r="D77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I77" s="47">
+      <c r="I77" s="9">
         <f t="shared" si="6"/>
         <v>42482.881944444445</v>
       </c>
-      <c r="J77" s="47">
+      <c r="J77" s="9">
         <f t="shared" si="7"/>
         <v>42482.986111111109</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="9">
         <f t="shared" si="8"/>
         <v>42482.881944444445</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="9">
         <f t="shared" si="9"/>
         <v>42482.986111111109</v>
       </c>
@@ -6643,41 +6643,41 @@
         <v>42483.15625</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+    <row r="79" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="45">
         <v>174778008</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="45">
         <v>1461394200</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="45">
         <v>1461400200</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8" t="s">
+      <c r="D79" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="47">
         <f t="shared" si="6"/>
         <v>42483.284722222219</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="47">
         <f t="shared" si="7"/>
         <v>42483.354166666672</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="47">
         <f t="shared" si="8"/>
         <v>42483.284722222219</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="47">
         <f t="shared" si="9"/>
         <v>42483.354166666672</v>
       </c>
@@ -27671,11 +27671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M750"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:XFD439"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:XFD450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27732,7 +27731,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>174774150</v>
       </c>
@@ -27771,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>174774124</v>
       </c>
@@ -27810,7 +27809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>174777506</v>
       </c>
@@ -27847,7 +27846,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>174777482</v>
       </c>
@@ -27884,7 +27883,7 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>174777574</v>
       </c>
@@ -27921,7 +27920,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>174773996</v>
       </c>
@@ -27958,7 +27957,7 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>174773893</v>
       </c>
@@ -27995,7 +27994,7 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>174773887</v>
       </c>
@@ -28034,7 +28033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>174774230</v>
       </c>
@@ -28075,7 +28074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>174777664</v>
       </c>
@@ -28112,7 +28111,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>174777680</v>
       </c>
@@ -28149,7 +28148,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>174777518</v>
       </c>
@@ -28186,7 +28185,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>174773596</v>
       </c>
@@ -28223,7 +28222,7 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>174777926</v>
       </c>
@@ -28264,7 +28263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>174778026</v>
       </c>
@@ -28301,7 +28300,7 @@
       </c>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>174777498</v>
       </c>
@@ -28338,7 +28337,7 @@
       </c>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>174777802</v>
       </c>
@@ -28375,7 +28374,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>174773332</v>
       </c>
@@ -28412,7 +28411,7 @@
       </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>174774330</v>
       </c>
@@ -28449,7 +28448,7 @@
       </c>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>174778364</v>
       </c>
@@ -28486,7 +28485,7 @@
       </c>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>174778068</v>
       </c>
@@ -28523,7 +28522,7 @@
       </c>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>174778064</v>
       </c>
@@ -28560,7 +28559,7 @@
       </c>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>174778492</v>
       </c>
@@ -28597,7 +28596,7 @@
       </c>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>174778550</v>
       </c>
@@ -28634,7 +28633,7 @@
       </c>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>174773328</v>
       </c>
@@ -28671,7 +28670,7 @@
       </c>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>174773739</v>
       </c>
@@ -28708,7 +28707,7 @@
       </c>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>174773751</v>
       </c>
@@ -28747,7 +28746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>174778566</v>
       </c>
@@ -28788,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>174777392</v>
       </c>
@@ -28825,7 +28824,7 @@
       </c>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
         <v>174778342</v>
       </c>
@@ -28862,7 +28861,7 @@
       </c>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>174778466</v>
       </c>
@@ -28899,7 +28898,7 @@
       </c>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>174774232</v>
       </c>
@@ -28936,7 +28935,7 @@
       </c>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>174773957</v>
       </c>
@@ -28975,7 +28974,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>174773460</v>
       </c>
@@ -29016,7 +29015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>174777548</v>
       </c>
@@ -29053,7 +29052,7 @@
       </c>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>174778170</v>
       </c>
@@ -29090,7 +29089,7 @@
       </c>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>174778166</v>
       </c>
@@ -29127,7 +29126,7 @@
       </c>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>174778580</v>
       </c>
@@ -29164,7 +29163,7 @@
       </c>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>174774494</v>
       </c>
@@ -29201,7 +29200,7 @@
       </c>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="20">
         <v>174774298</v>
       </c>
@@ -29240,7 +29239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
         <v>174774204</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="25">
         <v>174773919</v>
       </c>
@@ -29318,7 +29317,7 @@
       </c>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>174777510</v>
       </c>
@@ -29355,7 +29354,7 @@
       </c>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
         <v>174777674</v>
       </c>
@@ -29392,7 +29391,7 @@
       </c>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>174777464</v>
       </c>
@@ -29429,7 +29428,7 @@
       </c>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
         <v>174777480</v>
       </c>
@@ -29466,7 +29465,7 @@
       </c>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>174777458</v>
       </c>
@@ -29503,7 +29502,7 @@
       </c>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="25">
         <v>174773388</v>
       </c>
@@ -29540,7 +29539,7 @@
       </c>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>174773380</v>
       </c>
@@ -29579,7 +29578,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>174773432</v>
       </c>
@@ -29620,7 +29619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>174778458</v>
       </c>
@@ -29657,7 +29656,7 @@
       </c>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="25">
         <v>174778176</v>
       </c>
@@ -29694,7 +29693,7 @@
       </c>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>174778180</v>
       </c>
@@ -29731,7 +29730,7 @@
       </c>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="25">
         <v>174777656</v>
       </c>
@@ -29768,7 +29767,7 @@
       </c>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>174777662</v>
       </c>
@@ -29805,7 +29804,7 @@
       </c>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
         <v>174773508</v>
       </c>
@@ -29842,7 +29841,7 @@
       </c>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="20">
         <v>174773636</v>
       </c>
@@ -29881,7 +29880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="20">
         <v>174774076</v>
       </c>
@@ -29922,7 +29921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>174774222</v>
       </c>
@@ -29959,7 +29958,7 @@
       </c>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
         <v>174777744</v>
       </c>
@@ -29996,7 +29995,7 @@
       </c>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>174777868</v>
       </c>
@@ -30033,7 +30032,7 @@
       </c>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
         <v>174777388</v>
       </c>
@@ -30070,7 +30069,7 @@
       </c>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>174777394</v>
       </c>
@@ -30107,7 +30106,7 @@
       </c>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>174774238</v>
       </c>
@@ -30144,7 +30143,7 @@
       </c>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>174774386</v>
       </c>
@@ -30181,7 +30180,7 @@
       </c>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>174774466</v>
       </c>
@@ -30218,7 +30217,7 @@
       </c>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="20">
         <v>174774314</v>
       </c>
@@ -30257,7 +30256,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="20">
         <v>174774048</v>
       </c>
@@ -30298,7 +30297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>174778414</v>
       </c>
@@ -30335,7 +30334,7 @@
       </c>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
         <v>174778222</v>
       </c>
@@ -30372,7 +30371,7 @@
       </c>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>174777722</v>
       </c>
@@ -30409,7 +30408,7 @@
       </c>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
         <v>174778136</v>
       </c>
@@ -30446,7 +30445,7 @@
       </c>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>174778132</v>
       </c>
@@ -30483,7 +30482,7 @@
       </c>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
         <v>174774246</v>
       </c>
@@ -30520,7 +30519,7 @@
       </c>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>174774376</v>
       </c>
@@ -30557,7 +30556,7 @@
       </c>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="29">
         <v>174773642</v>
       </c>
@@ -30594,7 +30593,7 @@
       </c>
       <c r="M77" s="34"/>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>174778242</v>
       </c>
@@ -30631,7 +30630,7 @@
       </c>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="29">
         <v>174778008</v>
       </c>
@@ -30670,7 +30669,7 @@
       </c>
       <c r="M79" s="34"/>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>174778312</v>
       </c>
@@ -30707,7 +30706,7 @@
       </c>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
         <v>174778328</v>
       </c>
@@ -30744,7 +30743,7 @@
       </c>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>174774116</v>
       </c>
@@ -30781,7 +30780,7 @@
       </c>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="25">
         <v>174774132</v>
       </c>
@@ -30818,7 +30817,7 @@
       </c>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="20">
         <v>174774144</v>
       </c>
@@ -30857,7 +30856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
         <v>174777448</v>
       </c>
@@ -30898,7 +30897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>174777456</v>
       </c>
@@ -30935,7 +30934,7 @@
       </c>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
         <v>174777600</v>
       </c>
@@ -30972,7 +30971,7 @@
       </c>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>174778198</v>
       </c>
@@ -31009,7 +31008,7 @@
       </c>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
         <v>174773428</v>
       </c>
@@ -31046,7 +31045,7 @@
       </c>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>174773733</v>
       </c>
@@ -31083,7 +31082,7 @@
       </c>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
         <v>174773921</v>
       </c>
@@ -31120,7 +31119,7 @@
       </c>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>174774356</v>
       </c>
@@ -31157,7 +31156,7 @@
       </c>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
         <v>174773536</v>
       </c>
@@ -31194,7 +31193,7 @@
       </c>
       <c r="M93" s="34"/>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>174777432</v>
       </c>
@@ -31231,7 +31230,7 @@
       </c>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
         <v>174777646</v>
       </c>
@@ -31268,7 +31267,7 @@
       </c>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>174777644</v>
       </c>
@@ -31305,7 +31304,7 @@
       </c>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="25">
         <v>174777992</v>
       </c>
@@ -31342,7 +31341,7 @@
       </c>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="15">
         <v>174778446</v>
       </c>
@@ -31379,7 +31378,7 @@
       </c>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="25">
         <v>174773927</v>
       </c>
@@ -31418,7 +31417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>174777440</v>
       </c>
@@ -31455,7 +31454,7 @@
       </c>
       <c r="M100" s="34"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
         <v>174778518</v>
       </c>
@@ -31492,7 +31491,7 @@
       </c>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>174777732</v>
       </c>
@@ -31529,7 +31528,7 @@
       </c>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="25">
         <v>174773670</v>
       </c>
@@ -31566,7 +31565,7 @@
       </c>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>174773807</v>
       </c>
@@ -31603,7 +31602,7 @@
       </c>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
         <v>174778450</v>
       </c>
@@ -31640,7 +31639,7 @@
       </c>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <v>174778442</v>
       </c>
@@ -31677,7 +31676,7 @@
       </c>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="25">
         <v>174773983</v>
       </c>
@@ -31714,7 +31713,7 @@
       </c>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>174773821</v>
       </c>
@@ -31751,7 +31750,7 @@
       </c>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="25">
         <v>174777500</v>
       </c>
@@ -31788,7 +31787,7 @@
       </c>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <v>174777490</v>
       </c>
@@ -31825,7 +31824,7 @@
       </c>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="25">
         <v>174774456</v>
       </c>
@@ -31862,7 +31861,7 @@
       </c>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>174773400</v>
       </c>
@@ -31899,7 +31898,7 @@
       </c>
       <c r="M112" s="14"/>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="25">
         <v>174773588</v>
       </c>
@@ -31936,7 +31935,7 @@
       </c>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
         <v>174778218</v>
       </c>
@@ -31977,7 +31976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="25">
         <v>174778536</v>
       </c>
@@ -32014,7 +32013,7 @@
       </c>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>174774496</v>
       </c>
@@ -32051,7 +32050,7 @@
       </c>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="25">
         <v>174778572</v>
       </c>
@@ -32088,7 +32087,7 @@
       </c>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="15">
         <v>174773514</v>
       </c>
@@ -32125,7 +32124,7 @@
       </c>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
         <v>174773336</v>
       </c>
@@ -32162,7 +32161,7 @@
       </c>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>174777580</v>
       </c>
@@ -32347,7 +32346,7 @@
       </c>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="25">
         <v>174774344</v>
       </c>
@@ -32384,7 +32383,7 @@
       </c>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="15">
         <v>174778194</v>
       </c>
@@ -32421,7 +32420,7 @@
       </c>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="25">
         <v>174777910</v>
       </c>
@@ -32458,7 +32457,7 @@
       </c>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <v>174773843</v>
       </c>
@@ -32495,7 +32494,7 @@
       </c>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
         <v>174777904</v>
       </c>
@@ -32532,7 +32531,7 @@
       </c>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="15">
         <v>174777534</v>
       </c>
@@ -32569,7 +32568,7 @@
       </c>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="25">
         <v>174773352</v>
       </c>
@@ -32606,7 +32605,7 @@
       </c>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>174773527</v>
       </c>
@@ -32643,7 +32642,7 @@
       </c>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="25">
         <v>174777720</v>
       </c>
@@ -32680,7 +32679,7 @@
       </c>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="29">
         <v>174778436</v>
       </c>
@@ -32906,7 +32905,7 @@
       </c>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="15">
         <v>174773811</v>
       </c>
@@ -32943,7 +32942,7 @@
       </c>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
         <v>174774000</v>
       </c>
@@ -32980,7 +32979,7 @@
       </c>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
         <v>174773320</v>
       </c>
@@ -33021,7 +33020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="25">
         <v>174778412</v>
       </c>
@@ -33058,7 +33057,7 @@
       </c>
       <c r="M143" s="14"/>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="15">
         <v>174778268</v>
       </c>
@@ -33095,7 +33094,7 @@
       </c>
       <c r="M144" s="14"/>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="25">
         <v>174778128</v>
       </c>
@@ -33132,7 +33131,7 @@
       </c>
       <c r="M145" s="14"/>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="15">
         <v>174774498</v>
       </c>
@@ -33169,7 +33168,7 @@
       </c>
       <c r="M146" s="14"/>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="25">
         <v>174774484</v>
       </c>
@@ -33206,7 +33205,7 @@
       </c>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="20">
         <v>174773853</v>
       </c>
@@ -33245,7 +33244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="25">
         <v>174773700</v>
       </c>
@@ -33282,7 +33281,7 @@
       </c>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="29">
         <v>174778380</v>
       </c>
@@ -33323,7 +33322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="25">
         <v>174778512</v>
       </c>
@@ -33360,7 +33359,7 @@
       </c>
       <c r="M151" s="14"/>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="15">
         <v>174777404</v>
       </c>
@@ -33397,7 +33396,7 @@
       </c>
       <c r="M152" s="14"/>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="25">
         <v>174777428</v>
       </c>
@@ -33999,7 +33998,7 @@
       </c>
       <c r="M168" s="14"/>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
         <v>174774250</v>
       </c>
@@ -34036,7 +34035,7 @@
       </c>
       <c r="M169" s="14"/>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="15">
         <v>174774138</v>
       </c>
@@ -34073,7 +34072,7 @@
       </c>
       <c r="M170" s="14"/>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="20">
         <v>174773907</v>
       </c>
@@ -34112,7 +34111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="15">
         <v>174777962</v>
       </c>
@@ -34149,7 +34148,7 @@
       </c>
       <c r="M172" s="14"/>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="29">
         <v>174777936</v>
       </c>
@@ -34190,7 +34189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="15">
         <v>174777934</v>
       </c>
@@ -34227,7 +34226,7 @@
       </c>
       <c r="M174" s="14"/>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="25">
         <v>174778584</v>
       </c>
@@ -34264,7 +34263,7 @@
       </c>
       <c r="M175" s="14"/>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="15">
         <v>174773426</v>
       </c>
@@ -34301,7 +34300,7 @@
       </c>
       <c r="M176" s="14"/>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="20">
         <v>174773408</v>
       </c>
@@ -34340,7 +34339,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="20">
         <v>174773741</v>
       </c>
@@ -34381,7 +34380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="25">
         <v>174773610</v>
       </c>
@@ -34418,7 +34417,7 @@
       </c>
       <c r="M179" s="14"/>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="15">
         <v>174777688</v>
       </c>
@@ -34455,7 +34454,7 @@
       </c>
       <c r="M180" s="14"/>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="25">
         <v>174777686</v>
       </c>
@@ -34492,7 +34491,7 @@
       </c>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="15">
         <v>174777832</v>
       </c>
@@ -34529,7 +34528,7 @@
       </c>
       <c r="M182" s="14"/>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="25">
         <v>174773414</v>
       </c>
@@ -34566,7 +34565,7 @@
       </c>
       <c r="M183" s="14"/>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="15">
         <v>174774168</v>
       </c>
@@ -34603,7 +34602,7 @@
       </c>
       <c r="M184" s="14"/>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
         <v>174774188</v>
       </c>
@@ -34640,7 +34639,7 @@
       </c>
       <c r="M185" s="14"/>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="29">
         <v>174777488</v>
       </c>
@@ -34681,7 +34680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="25">
         <v>174777782</v>
       </c>
@@ -34718,7 +34717,7 @@
       </c>
       <c r="M187" s="14"/>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="15">
         <v>174777984</v>
       </c>
@@ -34755,7 +34754,7 @@
       </c>
       <c r="M188" s="14"/>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="25">
         <v>174777976</v>
       </c>
@@ -34792,7 +34791,7 @@
       </c>
       <c r="M189" s="14"/>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="15">
         <v>174774226</v>
       </c>
@@ -34829,7 +34828,7 @@
       </c>
       <c r="M190" s="14"/>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="20">
         <v>174773592</v>
       </c>
@@ -34868,7 +34867,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="20">
         <v>174773735</v>
       </c>
@@ -34909,7 +34908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="25">
         <v>174777486</v>
       </c>
@@ -34946,7 +34945,7 @@
       </c>
       <c r="M193" s="14"/>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="15">
         <v>174777866</v>
       </c>
@@ -34983,7 +34982,7 @@
       </c>
       <c r="M194" s="14"/>
     </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="25">
         <v>174777750</v>
       </c>
@@ -35020,7 +35019,7 @@
       </c>
       <c r="M195" s="14"/>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="15">
         <v>174777496</v>
       </c>
@@ -35057,7 +35056,7 @@
       </c>
       <c r="M196" s="14"/>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="25">
         <v>174778288</v>
       </c>
@@ -35094,7 +35093,7 @@
       </c>
       <c r="M197" s="14"/>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="15">
         <v>174774200</v>
       </c>
@@ -35131,7 +35130,7 @@
       </c>
       <c r="M198" s="14"/>
     </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="25">
         <v>174773755</v>
       </c>
@@ -35168,7 +35167,7 @@
       </c>
       <c r="M199" s="14"/>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="15">
         <v>174778398</v>
       </c>
@@ -35659,7 +35658,7 @@
       </c>
       <c r="M212" s="14"/>
     </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="25">
         <v>174773517</v>
       </c>
@@ -35696,7 +35695,7 @@
       </c>
       <c r="M213" s="14"/>
     </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="15">
         <v>174773626</v>
       </c>
@@ -35733,7 +35732,7 @@
       </c>
       <c r="M214" s="14"/>
     </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="25">
         <v>174773897</v>
       </c>
@@ -35770,7 +35769,7 @@
       </c>
       <c r="M215" s="14"/>
     </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="29">
         <v>174773845</v>
       </c>
@@ -35811,7 +35810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="25">
         <v>174778036</v>
       </c>
@@ -35848,7 +35847,7 @@
       </c>
       <c r="M217" s="14"/>
     </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="15">
         <v>174778144</v>
       </c>
@@ -35885,7 +35884,7 @@
       </c>
       <c r="M218" s="14"/>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="25">
         <v>174777982</v>
       </c>
@@ -35922,7 +35921,7 @@
       </c>
       <c r="M219" s="14"/>
     </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="15">
         <v>174778426</v>
       </c>
@@ -35959,7 +35958,7 @@
       </c>
       <c r="M220" s="14"/>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="25">
         <v>174773728</v>
       </c>
@@ -35996,7 +35995,7 @@
       </c>
       <c r="M221" s="14"/>
     </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="15">
         <v>174773939</v>
       </c>
@@ -36033,7 +36032,7 @@
       </c>
       <c r="M222" s="14"/>
     </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="25">
         <v>174774058</v>
       </c>
@@ -36070,7 +36069,7 @@
       </c>
       <c r="M223" s="14"/>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="29">
         <v>174777618</v>
       </c>
@@ -36107,7 +36106,7 @@
       </c>
       <c r="M224" s="34"/>
     </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="25">
         <v>174777836</v>
       </c>
@@ -36144,7 +36143,7 @@
       </c>
       <c r="M225" s="14"/>
     </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="15">
         <v>174777822</v>
       </c>
@@ -36181,7 +36180,7 @@
       </c>
       <c r="M226" s="14"/>
     </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="25">
         <v>174777786</v>
       </c>
@@ -36218,7 +36217,7 @@
       </c>
       <c r="M227" s="14"/>
     </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="15">
         <v>174778322</v>
       </c>
@@ -36255,7 +36254,7 @@
       </c>
       <c r="M228" s="14"/>
     </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="25">
         <v>174774114</v>
       </c>
@@ -36292,7 +36291,7 @@
       </c>
       <c r="M229" s="14"/>
     </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="20">
         <v>174774242</v>
       </c>
@@ -36331,7 +36330,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="25">
         <v>174778044</v>
       </c>
@@ -36368,7 +36367,7 @@
       </c>
       <c r="M231" s="14"/>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="29">
         <v>174777816</v>
       </c>
@@ -36409,7 +36408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="25">
         <v>174778196</v>
       </c>
@@ -36446,7 +36445,7 @@
       </c>
       <c r="M233" s="14"/>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="15">
         <v>174774194</v>
       </c>
@@ -36483,7 +36482,7 @@
       </c>
       <c r="M234" s="14"/>
     </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="25">
         <v>174774336</v>
       </c>
@@ -36520,7 +36519,7 @@
       </c>
       <c r="M235" s="14"/>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="20">
         <v>174774312</v>
       </c>
@@ -36559,7 +36558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="25">
         <v>174774476</v>
       </c>
@@ -36596,7 +36595,7 @@
       </c>
       <c r="M237" s="14"/>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="15">
         <v>174774072</v>
       </c>
@@ -36633,7 +36632,7 @@
       </c>
       <c r="M238" s="14"/>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="25">
         <v>174773917</v>
       </c>
@@ -36670,7 +36669,7 @@
       </c>
       <c r="M239" s="14"/>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="29">
         <v>174777968</v>
       </c>
@@ -36707,7 +36706,7 @@
       </c>
       <c r="M240" s="34"/>
     </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="25">
         <v>174777528</v>
       </c>
@@ -36857,7 +36856,7 @@
       </c>
       <c r="M244" s="14"/>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="25">
         <v>174774450</v>
       </c>
@@ -36894,7 +36893,7 @@
       </c>
       <c r="M245" s="14"/>
     </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="15">
         <v>174774468</v>
       </c>
@@ -36931,7 +36930,7 @@
       </c>
       <c r="M246" s="14"/>
     </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="20">
         <v>174774454</v>
       </c>
@@ -36970,7 +36969,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="29">
         <v>174777948</v>
       </c>
@@ -37011,7 +37010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="25">
         <v>174777638</v>
       </c>
@@ -37048,7 +37047,7 @@
       </c>
       <c r="M249" s="14"/>
     </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="15">
         <v>174778576</v>
       </c>
@@ -37800,7 +37799,7 @@
       </c>
       <c r="M269" s="14"/>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="15">
         <v>174773839</v>
       </c>
@@ -37837,7 +37836,7 @@
       </c>
       <c r="M270" s="14"/>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="25">
         <v>174773392</v>
       </c>
@@ -37874,7 +37873,7 @@
       </c>
       <c r="M271" s="14"/>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="15">
         <v>174777468</v>
       </c>
@@ -37911,7 +37910,7 @@
       </c>
       <c r="M272" s="14"/>
     </row>
-    <row r="273" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="29">
         <v>174778114</v>
       </c>
@@ -37952,7 +37951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="15">
         <v>174778542</v>
       </c>
@@ -37989,7 +37988,7 @@
       </c>
       <c r="M274" s="14"/>
     </row>
-    <row r="275" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="25">
         <v>174773420</v>
       </c>
@@ -38026,7 +38025,7 @@
       </c>
       <c r="M275" s="14"/>
     </row>
-    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="15">
         <v>174773558</v>
       </c>
@@ -38063,7 +38062,7 @@
       </c>
       <c r="M276" s="14"/>
     </row>
-    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="25">
         <v>174773552</v>
       </c>
@@ -38100,7 +38099,7 @@
       </c>
       <c r="M277" s="14"/>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="29">
         <v>174778286</v>
       </c>
@@ -38137,7 +38136,7 @@
       </c>
       <c r="M278" s="34"/>
     </row>
-    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="25">
         <v>174778298</v>
       </c>
@@ -38174,7 +38173,7 @@
       </c>
       <c r="M279" s="14"/>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="15">
         <v>174774366</v>
       </c>
@@ -38211,7 +38210,7 @@
       </c>
       <c r="M280" s="14"/>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="20">
         <v>174774372</v>
       </c>
@@ -38250,7 +38249,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="15">
         <v>174777442</v>
       </c>
@@ -38287,7 +38286,7 @@
       </c>
       <c r="M282" s="14"/>
     </row>
-    <row r="283" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="25">
         <v>174773891</v>
       </c>
@@ -38324,7 +38323,7 @@
       </c>
       <c r="M283" s="14"/>
     </row>
-    <row r="284" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="20">
         <v>174773506</v>
       </c>
@@ -38363,7 +38362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="25">
         <v>174778400</v>
       </c>
@@ -38400,7 +38399,7 @@
       </c>
       <c r="M285" s="14"/>
     </row>
-    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="29">
         <v>174778100</v>
       </c>
@@ -38437,7 +38436,7 @@
       </c>
       <c r="M286" s="34"/>
     </row>
-    <row r="287" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="25">
         <v>177411969</v>
       </c>
@@ -39187,7 +39186,7 @@
       </c>
       <c r="M306" s="14"/>
     </row>
-    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="25">
         <v>174773366</v>
       </c>
@@ -39224,7 +39223,7 @@
       </c>
       <c r="M307" s="14"/>
     </row>
-    <row r="308" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="20">
         <v>174773534</v>
       </c>
@@ -39263,7 +39262,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="20">
         <v>174773988</v>
       </c>
@@ -39304,7 +39303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="15">
         <v>174777882</v>
       </c>
@@ -39341,7 +39340,7 @@
       </c>
       <c r="M310" s="14"/>
     </row>
-    <row r="311" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="25">
         <v>174778148</v>
       </c>
@@ -39378,7 +39377,7 @@
       </c>
       <c r="M311" s="14"/>
     </row>
-    <row r="312" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="15">
         <v>174777746</v>
       </c>
@@ -39415,7 +39414,7 @@
       </c>
       <c r="M312" s="14"/>
     </row>
-    <row r="313" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="25">
         <v>174773827</v>
       </c>
@@ -39452,7 +39451,7 @@
       </c>
       <c r="M313" s="14"/>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="15">
         <v>174773521</v>
       </c>
@@ -39489,7 +39488,7 @@
       </c>
       <c r="M314" s="14"/>
     </row>
-    <row r="315" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="25">
         <v>174773638</v>
       </c>
@@ -39526,7 +39525,7 @@
       </c>
       <c r="M315" s="14"/>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="29">
         <v>174778164</v>
       </c>
@@ -39563,7 +39562,7 @@
       </c>
       <c r="M316" s="34"/>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="25">
         <v>174777994</v>
       </c>
@@ -39600,7 +39599,7 @@
       </c>
       <c r="M317" s="14"/>
     </row>
-    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="15">
         <v>174778078</v>
       </c>
@@ -39637,7 +39636,7 @@
       </c>
       <c r="M318" s="14"/>
     </row>
-    <row r="319" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="25">
         <v>174774416</v>
       </c>
@@ -39674,7 +39673,7 @@
       </c>
       <c r="M319" s="14"/>
     </row>
-    <row r="320" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="15">
         <v>174774462</v>
       </c>
@@ -39711,7 +39710,7 @@
       </c>
       <c r="M320" s="14"/>
     </row>
-    <row r="321" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="25">
         <v>174778500</v>
       </c>
@@ -39748,7 +39747,7 @@
       </c>
       <c r="M321" s="14"/>
     </row>
-    <row r="322" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="15">
         <v>174778348</v>
       </c>
@@ -39785,7 +39784,7 @@
       </c>
       <c r="M322" s="14"/>
     </row>
-    <row r="323" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="25">
         <v>174778316</v>
       </c>
@@ -39822,7 +39821,7 @@
       </c>
       <c r="M323" s="14"/>
     </row>
-    <row r="324" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="15">
         <v>174773684</v>
       </c>
@@ -39859,7 +39858,7 @@
       </c>
       <c r="M324" s="14"/>
     </row>
-    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="25">
         <v>174774234</v>
       </c>
@@ -39896,7 +39895,7 @@
       </c>
       <c r="M325" s="14"/>
     </row>
-    <row r="326" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="20">
         <v>174774322</v>
       </c>
@@ -39935,7 +39934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="20">
         <v>174773574</v>
       </c>
@@ -39976,7 +39975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="15">
         <v>174777648</v>
       </c>
@@ -40013,7 +40012,7 @@
       </c>
       <c r="M328" s="14"/>
     </row>
-    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="25">
         <v>174777784</v>
       </c>
@@ -40050,7 +40049,7 @@
       </c>
       <c r="M329" s="14"/>
     </row>
-    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="15">
         <v>174777798</v>
       </c>
@@ -40087,7 +40086,7 @@
       </c>
       <c r="M330" s="14"/>
     </row>
-    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="25">
         <v>174774052</v>
       </c>
@@ -40124,7 +40123,7 @@
       </c>
       <c r="M331" s="14"/>
     </row>
-    <row r="332" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="15">
         <v>174773668</v>
       </c>
@@ -40161,7 +40160,7 @@
       </c>
       <c r="M332" s="14"/>
     </row>
-    <row r="333" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="20">
         <v>174773662</v>
       </c>
@@ -40200,7 +40199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="29">
         <v>174777558</v>
       </c>
@@ -40241,7 +40240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="25">
         <v>174778592</v>
       </c>
@@ -40278,7 +40277,7 @@
       </c>
       <c r="M335" s="14"/>
     </row>
-    <row r="336" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="15">
         <v>174777622</v>
       </c>
@@ -40315,7 +40314,7 @@
       </c>
       <c r="M336" s="14"/>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="25">
         <v>174777590</v>
       </c>
@@ -40878,7 +40877,7 @@
       </c>
       <c r="M351" s="14"/>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="15">
         <v>174774220</v>
       </c>
@@ -40915,7 +40914,7 @@
       </c>
       <c r="M352" s="14"/>
     </row>
-    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="25">
         <v>174774248</v>
       </c>
@@ -40952,7 +40951,7 @@
       </c>
       <c r="M353" s="14"/>
     </row>
-    <row r="354" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="20">
         <v>174773434</v>
       </c>
@@ -40991,7 +40990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="355" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="25">
         <v>174777476</v>
       </c>
@@ -41028,7 +41027,7 @@
       </c>
       <c r="M355" s="14"/>
     </row>
-    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="29">
         <v>174778574</v>
       </c>
@@ -41069,7 +41068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="25">
         <v>174778506</v>
       </c>
@@ -41106,7 +41105,7 @@
       </c>
       <c r="M357" s="14"/>
     </row>
-    <row r="358" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="15">
         <v>174774470</v>
       </c>
@@ -41143,7 +41142,7 @@
       </c>
       <c r="M358" s="14"/>
     </row>
-    <row r="359" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="20">
         <v>174773346</v>
       </c>
@@ -41182,7 +41181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="360" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="15">
         <v>174774340</v>
       </c>
@@ -41219,7 +41218,7 @@
       </c>
       <c r="M360" s="14"/>
     </row>
-    <row r="361" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="25">
         <v>174777596</v>
       </c>
@@ -41256,7 +41255,7 @@
       </c>
       <c r="M361" s="14"/>
     </row>
-    <row r="362" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="15">
         <v>174778236</v>
       </c>
@@ -41293,7 +41292,7 @@
       </c>
       <c r="M362" s="14"/>
     </row>
-    <row r="363" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="25">
         <v>174777576</v>
       </c>
@@ -41330,7 +41329,7 @@
       </c>
       <c r="M363" s="14"/>
     </row>
-    <row r="364" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="15">
         <v>174774206</v>
       </c>
@@ -41367,7 +41366,7 @@
       </c>
       <c r="M364" s="14"/>
     </row>
-    <row r="365" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="25">
         <v>174774428</v>
       </c>
@@ -41404,7 +41403,7 @@
       </c>
       <c r="M365" s="14"/>
     </row>
-    <row r="366" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="15">
         <v>174774022</v>
       </c>
@@ -41441,7 +41440,7 @@
       </c>
       <c r="M366" s="14"/>
     </row>
-    <row r="367" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="29">
         <v>174777740</v>
       </c>
@@ -41478,7 +41477,7 @@
       </c>
       <c r="M367" s="34"/>
     </row>
-    <row r="368" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
         <v>174778006</v>
       </c>
@@ -41515,7 +41514,7 @@
       </c>
       <c r="M368" s="14"/>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="25">
         <v>174773372</v>
       </c>
@@ -41552,7 +41551,7 @@
       </c>
       <c r="M369" s="14"/>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="15">
         <v>174774442</v>
       </c>
@@ -41589,7 +41588,7 @@
       </c>
       <c r="M370" s="14"/>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="25">
         <v>174778258</v>
       </c>
@@ -41626,7 +41625,7 @@
       </c>
       <c r="M371" s="14"/>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="15">
         <v>174778560</v>
       </c>
@@ -43496,7 +43495,7 @@
       </c>
       <c r="M421" s="14"/>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="15">
         <v>174774302</v>
       </c>
@@ -43533,7 +43532,7 @@
       </c>
       <c r="M422" s="14"/>
     </row>
-    <row r="423" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="25">
         <v>174773998</v>
       </c>
@@ -43570,7 +43569,7 @@
       </c>
       <c r="M423" s="14"/>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="15">
         <v>174774028</v>
       </c>
@@ -43607,7 +43606,7 @@
       </c>
       <c r="M424" s="14"/>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="25">
         <v>174774426</v>
       </c>
@@ -43644,7 +43643,7 @@
       </c>
       <c r="M425" s="14"/>
     </row>
-    <row r="426" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="15">
         <v>174778102</v>
       </c>
@@ -43681,7 +43680,7 @@
       </c>
       <c r="M426" s="14"/>
     </row>
-    <row r="427" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="20">
         <v>174773542</v>
       </c>
@@ -43720,7 +43719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="15">
         <v>174777634</v>
       </c>
@@ -44324,7 +44323,7 @@
       </c>
       <c r="M443" s="14"/>
     </row>
-    <row r="444" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="15">
         <v>174773829</v>
       </c>
@@ -44361,7 +44360,7 @@
       </c>
       <c r="M444" s="14"/>
     </row>
-    <row r="445" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="25">
         <v>174773500</v>
       </c>
@@ -44398,7 +44397,7 @@
       </c>
       <c r="M445" s="14"/>
     </row>
-    <row r="446" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="15">
         <v>174778280</v>
       </c>
@@ -44435,7 +44434,7 @@
       </c>
       <c r="M446" s="14"/>
     </row>
-    <row r="447" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="25">
         <v>174774414</v>
       </c>
@@ -44472,7 +44471,7 @@
       </c>
       <c r="M447" s="14"/>
     </row>
-    <row r="448" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="15">
         <v>174773761</v>
       </c>
@@ -44509,7 +44508,7 @@
       </c>
       <c r="M448" s="14"/>
     </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="25">
         <v>174777828</v>
       </c>
@@ -44546,7 +44545,7 @@
       </c>
       <c r="M449" s="14"/>
     </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="15">
         <v>174774486</v>
       </c>
@@ -44583,7 +44582,7 @@
       </c>
       <c r="M450" s="14"/>
     </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="25">
         <v>174773516</v>
       </c>
@@ -44620,7 +44619,7 @@
       </c>
       <c r="M451" s="14"/>
     </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="15">
         <v>174773396</v>
       </c>
@@ -44657,7 +44656,7 @@
       </c>
       <c r="M452" s="14"/>
     </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="25">
         <v>174773390</v>
       </c>
@@ -44694,7 +44693,7 @@
       </c>
       <c r="M453" s="14"/>
     </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="29">
         <v>174778046</v>
       </c>
@@ -44735,7 +44734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="25">
         <v>174778586</v>
       </c>
@@ -44772,7 +44771,7 @@
       </c>
       <c r="M455" s="14"/>
     </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="15">
         <v>174777614</v>
       </c>
@@ -44809,7 +44808,7 @@
       </c>
       <c r="M456" s="14"/>
     </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="25">
         <v>174773523</v>
       </c>
@@ -44846,7 +44845,7 @@
       </c>
       <c r="M457" s="14"/>
     </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="20">
         <v>174773594</v>
       </c>
@@ -44885,7 +44884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="25">
         <v>174773544</v>
       </c>
@@ -44922,7 +44921,7 @@
       </c>
       <c r="M459" s="14"/>
     </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="29">
         <v>174778240</v>
       </c>
@@ -44959,7 +44958,7 @@
       </c>
       <c r="M460" s="34"/>
     </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="25">
         <v>174778086</v>
       </c>
@@ -44996,7 +44995,7 @@
       </c>
       <c r="M461" s="14"/>
     </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="15">
         <v>174774348</v>
       </c>
@@ -45033,7 +45032,7 @@
       </c>
       <c r="M462" s="14"/>
     </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="25">
         <v>174774270</v>
       </c>
@@ -45070,7 +45069,7 @@
       </c>
       <c r="M463" s="14"/>
     </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="20">
         <v>174774050</v>
       </c>
@@ -45109,7 +45108,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="20">
         <v>174773706</v>
       </c>
@@ -45150,7 +45149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="15">
         <v>174777758</v>
       </c>
@@ -45187,7 +45186,7 @@
       </c>
       <c r="M466" s="14"/>
     </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="29">
         <v>174778306</v>
       </c>
@@ -45224,7 +45223,7 @@
       </c>
       <c r="M467" s="34"/>
     </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="15">
         <v>174778310</v>
       </c>
@@ -45261,7 +45260,7 @@
       </c>
       <c r="M468" s="14"/>
     </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="25">
         <v>174774490</v>
       </c>
@@ -45298,7 +45297,7 @@
       </c>
       <c r="M469" s="14"/>
     </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="20">
         <v>174774334</v>
       </c>
@@ -45337,7 +45336,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="25">
         <v>174778462</v>
       </c>
@@ -45374,7 +45373,7 @@
       </c>
       <c r="M471" s="14"/>
     </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="15">
         <v>174777776</v>
       </c>
@@ -45411,7 +45410,7 @@
       </c>
       <c r="M472" s="14"/>
     </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="25">
         <v>174778562</v>
       </c>
@@ -45448,7 +45447,7 @@
       </c>
       <c r="M473" s="14"/>
     </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="15">
         <v>174773745</v>
       </c>
@@ -45485,7 +45484,7 @@
       </c>
       <c r="M474" s="14"/>
     </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="20">
         <v>174773765</v>
       </c>
@@ -45524,7 +45523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="20">
         <v>174774108</v>
       </c>
@@ -45565,7 +45564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="25">
         <v>174778034</v>
       </c>
@@ -45602,7 +45601,7 @@
       </c>
       <c r="M477" s="14"/>
     </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="15">
         <v>174777684</v>
       </c>
@@ -45639,7 +45638,7 @@
       </c>
       <c r="M478" s="14"/>
     </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="25">
         <v>174777906</v>
       </c>
@@ -45861,7 +45860,7 @@
       </c>
       <c r="M484" s="14"/>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="25">
         <v>174774216</v>
       </c>
@@ -45898,7 +45897,7 @@
       </c>
       <c r="M485" s="14"/>
     </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="15">
         <v>174773795</v>
       </c>
@@ -45935,7 +45934,7 @@
       </c>
       <c r="M486" s="14"/>
     </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="25">
         <v>174773813</v>
       </c>
@@ -45972,7 +45971,7 @@
       </c>
       <c r="M487" s="14"/>
     </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="29">
         <v>174777930</v>
       </c>
@@ -46009,7 +46008,7 @@
       </c>
       <c r="M488" s="34"/>
     </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="25">
         <v>174777472</v>
       </c>
@@ -46046,7 +46045,7 @@
       </c>
       <c r="M489" s="14"/>
     </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="15">
         <v>174778554</v>
       </c>
@@ -46231,7 +46230,7 @@
       </c>
       <c r="M494" s="34"/>
     </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="25">
         <v>174773568</v>
       </c>
@@ -46268,7 +46267,7 @@
       </c>
       <c r="M495" s="14"/>
     </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="20">
         <v>174773470</v>
       </c>
@@ -46307,7 +46306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="25">
         <v>174773442</v>
       </c>
@@ -46344,7 +46343,7 @@
       </c>
       <c r="M497" s="14"/>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="15">
         <v>174773540</v>
       </c>
@@ -46381,7 +46380,7 @@
       </c>
       <c r="M498" s="14"/>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="25">
         <v>174774434</v>
       </c>
@@ -46418,7 +46417,7 @@
       </c>
       <c r="M499" s="14"/>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="15">
         <v>174774152</v>
       </c>
@@ -46455,7 +46454,7 @@
       </c>
       <c r="M500" s="14"/>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="29">
         <v>174777996</v>
       </c>
@@ -46492,7 +46491,7 @@
       </c>
       <c r="M501" s="34"/>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="15">
         <v>174777972</v>
       </c>
@@ -46529,7 +46528,7 @@
       </c>
       <c r="M502" s="14"/>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="25">
         <v>174773775</v>
       </c>
@@ -46566,7 +46565,7 @@
       </c>
       <c r="M503" s="14"/>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="20">
         <v>174773783</v>
       </c>
@@ -46605,7 +46604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" s="20">
         <v>174773817</v>
       </c>
@@ -46646,7 +46645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="15">
         <v>174777900</v>
       </c>
@@ -46683,7 +46682,7 @@
       </c>
       <c r="M506" s="14"/>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="25">
         <v>174778122</v>
       </c>
@@ -46720,7 +46719,7 @@
       </c>
       <c r="M507" s="14"/>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="15">
         <v>174778244</v>
       </c>
@@ -47055,7 +47054,7 @@
       </c>
       <c r="M516" s="14"/>
     </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="25">
         <v>174774012</v>
       </c>
@@ -47092,7 +47091,7 @@
       </c>
       <c r="M517" s="14"/>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="20">
         <v>174773652</v>
       </c>
@@ -47131,7 +47130,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="25">
         <v>174777712</v>
       </c>
@@ -47168,7 +47167,7 @@
       </c>
       <c r="M519" s="14"/>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="29">
         <v>174777860</v>
       </c>
@@ -47205,7 +47204,7 @@
       </c>
       <c r="M520" s="34"/>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="25">
         <v>174778000</v>
       </c>
@@ -47242,7 +47241,7 @@
       </c>
       <c r="M521" s="14"/>
     </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="15">
         <v>174777436</v>
       </c>
@@ -49326,7 +49325,7 @@
       </c>
       <c r="M577" s="14"/>
     </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="15">
         <v>174774174</v>
       </c>
@@ -49363,7 +49362,7 @@
       </c>
       <c r="M578" s="14"/>
     </row>
-    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="25">
         <v>174773440</v>
       </c>
@@ -49400,7 +49399,7 @@
       </c>
       <c r="M579" s="14"/>
     </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="15">
         <v>174777408</v>
       </c>
@@ -49437,7 +49436,7 @@
       </c>
       <c r="M580" s="14"/>
     </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="25">
         <v>174777896</v>
       </c>
@@ -49474,7 +49473,7 @@
       </c>
       <c r="M581" s="14"/>
     </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="15">
         <v>174773859</v>
       </c>
@@ -49511,7 +49510,7 @@
       </c>
       <c r="M582" s="14"/>
     </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="25">
         <v>174773502</v>
       </c>
@@ -49548,7 +49547,7 @@
       </c>
       <c r="M583" s="14"/>
     </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="15">
         <v>174777608</v>
       </c>
@@ -49585,7 +49584,7 @@
       </c>
       <c r="M584" s="14"/>
     </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="25">
         <v>174774154</v>
       </c>
@@ -49622,7 +49621,7 @@
       </c>
       <c r="M585" s="14"/>
     </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="20">
         <v>174773510</v>
       </c>
@@ -49661,7 +49660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" s="20">
         <v>174773883</v>
       </c>
@@ -49702,7 +49701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" s="15">
         <v>174777514</v>
       </c>
@@ -49739,7 +49738,7 @@
       </c>
       <c r="M588" s="14"/>
     </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="25">
         <v>174778534</v>
       </c>
@@ -49776,7 +49775,7 @@
       </c>
       <c r="M589" s="14"/>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="15">
         <v>174778052</v>
       </c>
@@ -49813,7 +49812,7 @@
       </c>
       <c r="M590" s="14"/>
     </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="25">
         <v>174777842</v>
       </c>
@@ -49850,7 +49849,7 @@
       </c>
       <c r="M591" s="14"/>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="15">
         <v>174773546</v>
       </c>
@@ -49887,7 +49886,7 @@
       </c>
       <c r="M592" s="14"/>
     </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="20">
         <v>174774288</v>
       </c>
@@ -49926,7 +49925,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="20">
         <v>174773835</v>
       </c>
@@ -49967,7 +49966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="25">
         <v>174778340</v>
       </c>
@@ -50004,7 +50003,7 @@
       </c>
       <c r="M595" s="14"/>
     </row>
-    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="15">
         <v>174778216</v>
       </c>
@@ -50041,7 +50040,7 @@
       </c>
       <c r="M596" s="14"/>
     </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="25">
         <v>174778058</v>
       </c>
@@ -50078,7 +50077,7 @@
       </c>
       <c r="M597" s="14"/>
     </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="15">
         <v>174777814</v>
       </c>
@@ -50115,7 +50114,7 @@
       </c>
       <c r="M598" s="14"/>
     </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="25">
         <v>174773566</v>
       </c>
@@ -50152,7 +50151,7 @@
       </c>
       <c r="M599" s="14"/>
     </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="15">
         <v>174777438</v>
       </c>
@@ -50189,7 +50188,7 @@
       </c>
       <c r="M600" s="14"/>
     </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="25">
         <v>174773905</v>
       </c>
@@ -50226,7 +50225,7 @@
       </c>
       <c r="M601" s="14"/>
     </row>
-    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="29">
         <v>174774256</v>
       </c>
@@ -50263,7 +50262,7 @@
       </c>
       <c r="M602" s="34"/>
     </row>
-    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="25">
         <v>174778528</v>
       </c>
@@ -50300,7 +50299,7 @@
       </c>
       <c r="M603" s="14"/>
     </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" s="15">
         <v>174774282</v>
       </c>
@@ -50337,7 +50336,7 @@
       </c>
       <c r="M604" s="14"/>
     </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="25">
         <v>174778504</v>
       </c>
@@ -50374,7 +50373,7 @@
       </c>
       <c r="M605" s="14"/>
     </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" s="15">
         <v>174773496</v>
       </c>
@@ -50411,7 +50410,7 @@
       </c>
       <c r="M606" s="14"/>
     </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" s="20">
         <v>174773318</v>
       </c>
@@ -50450,7 +50449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" s="20">
         <v>174774422</v>
       </c>
@@ -50491,7 +50490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A609" s="25">
         <v>174778532</v>
       </c>
@@ -50528,7 +50527,7 @@
       </c>
       <c r="M609" s="14"/>
     </row>
-    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A610" s="15">
         <v>174778212</v>
       </c>
@@ -50565,7 +50564,7 @@
       </c>
       <c r="M610" s="14"/>
     </row>
-    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A611" s="25">
         <v>174778200</v>
       </c>
@@ -50602,7 +50601,7 @@
       </c>
       <c r="M611" s="14"/>
     </row>
-    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A612" s="15">
         <v>174773338</v>
       </c>
@@ -50639,7 +50638,7 @@
       </c>
       <c r="M612" s="14"/>
     </row>
-    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A613" s="25">
         <v>174773358</v>
       </c>
@@ -50676,7 +50675,7 @@
       </c>
       <c r="M613" s="14"/>
     </row>
-    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A614" s="15">
         <v>174773570</v>
       </c>
@@ -50713,7 +50712,7 @@
       </c>
       <c r="M614" s="14"/>
     </row>
-    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A615" s="25">
         <v>174777908</v>
       </c>
@@ -50750,7 +50749,7 @@
       </c>
       <c r="M615" s="14"/>
     </row>
-    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A616" s="29">
         <v>174777864</v>
       </c>
@@ -50787,7 +50786,7 @@
       </c>
       <c r="M616" s="34"/>
     </row>
-    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617" s="25">
         <v>174777876</v>
       </c>
@@ -50824,7 +50823,7 @@
       </c>
       <c r="M617" s="14"/>
     </row>
-    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A618" s="15">
         <v>174774006</v>
       </c>
@@ -50861,7 +50860,7 @@
       </c>
       <c r="M618" s="14"/>
     </row>
-    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A619" s="20">
         <v>174773990</v>
       </c>
@@ -50900,7 +50899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="20">
         <v>174773456</v>
       </c>
@@ -50941,7 +50940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A621" s="25">
         <v>174777542</v>
       </c>
@@ -50978,7 +50977,7 @@
       </c>
       <c r="M621" s="14"/>
     </row>
-    <row r="622" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A622" s="15">
         <v>174777426</v>
       </c>
@@ -51015,7 +51014,7 @@
       </c>
       <c r="M622" s="14"/>
     </row>
-    <row r="623" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A623" s="25">
         <v>174777584</v>
       </c>
@@ -51052,7 +51051,7 @@
       </c>
       <c r="M623" s="14"/>
     </row>
-    <row r="624" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A624" s="15">
         <v>174773722</v>
       </c>
@@ -51089,7 +51088,7 @@
       </c>
       <c r="M624" s="14"/>
     </row>
-    <row r="625" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" s="25">
         <v>174777598</v>
       </c>
@@ -51126,7 +51125,7 @@
       </c>
       <c r="M625" s="14"/>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" s="15">
         <v>174773340</v>
       </c>
@@ -51163,7 +51162,7 @@
       </c>
       <c r="M626" s="14"/>
     </row>
-    <row r="627" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" s="25">
         <v>174777422</v>
       </c>
@@ -51200,7 +51199,7 @@
       </c>
       <c r="M627" s="14"/>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" s="15">
         <v>174773787</v>
       </c>
@@ -51237,7 +51236,7 @@
       </c>
       <c r="M628" s="14"/>
     </row>
-    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" s="25">
         <v>174774032</v>
       </c>
@@ -51274,7 +51273,7 @@
       </c>
       <c r="M629" s="14"/>
     </row>
-    <row r="630" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" s="15">
         <v>174777854</v>
       </c>
@@ -51311,7 +51310,7 @@
       </c>
       <c r="M630" s="14"/>
     </row>
-    <row r="631" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A631" s="25">
         <v>174774432</v>
       </c>
@@ -51348,7 +51347,7 @@
       </c>
       <c r="M631" s="14"/>
     </row>
-    <row r="632" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A632" s="15">
         <v>174773468</v>
       </c>
@@ -51385,7 +51384,7 @@
       </c>
       <c r="M632" s="14"/>
     </row>
-    <row r="633" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A633" s="25">
         <v>174773480</v>
       </c>
@@ -51422,7 +51421,7 @@
       </c>
       <c r="M633" s="14"/>
     </row>
-    <row r="634" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A634" s="15">
         <v>174773530</v>
       </c>
@@ -51459,7 +51458,7 @@
       </c>
       <c r="M634" s="14"/>
     </row>
-    <row r="635" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A635" s="25">
         <v>174773849</v>
       </c>
@@ -51496,7 +51495,7 @@
       </c>
       <c r="M635" s="14"/>
     </row>
-    <row r="636" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A636" s="15">
         <v>174777670</v>
       </c>
@@ -51533,7 +51532,7 @@
       </c>
       <c r="M636" s="14"/>
     </row>
-    <row r="637" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A637" s="25">
         <v>174773759</v>
       </c>
@@ -51570,7 +51569,7 @@
       </c>
       <c r="M637" s="14"/>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A638" s="15">
         <v>174774016</v>
       </c>
@@ -51607,7 +51606,7 @@
       </c>
       <c r="M638" s="14"/>
     </row>
-    <row r="639" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639" s="25">
         <v>174778260</v>
       </c>
@@ -51644,7 +51643,7 @@
       </c>
       <c r="M639" s="14"/>
     </row>
-    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640" s="15">
         <v>174774192</v>
       </c>
@@ -51681,7 +51680,7 @@
       </c>
       <c r="M640" s="14"/>
     </row>
-    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641" s="25">
         <v>174773867</v>
       </c>
@@ -51718,7 +51717,7 @@
       </c>
       <c r="M641" s="14"/>
     </row>
-    <row r="642" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A642" s="15">
         <v>174777632</v>
       </c>
@@ -51755,7 +51754,7 @@
       </c>
       <c r="M642" s="14"/>
     </row>
-    <row r="643" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A643" s="25">
         <v>174773763</v>
       </c>
@@ -51792,7 +51791,7 @@
       </c>
       <c r="M643" s="14"/>
     </row>
-    <row r="644" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A644" s="15">
         <v>174773757</v>
       </c>
@@ -51829,7 +51828,7 @@
       </c>
       <c r="M644" s="14"/>
     </row>
-    <row r="645" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A645" s="20">
         <v>174773873</v>
       </c>
@@ -51868,7 +51867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="646" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646" s="15">
         <v>174777806</v>
       </c>
@@ -51905,7 +51904,7 @@
       </c>
       <c r="M646" s="14"/>
     </row>
-    <row r="647" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647" s="29">
         <v>174778402</v>
       </c>
@@ -51942,7 +51941,7 @@
       </c>
       <c r="M647" s="34"/>
     </row>
-    <row r="648" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" s="15">
         <v>174777582</v>
       </c>
@@ -51979,7 +51978,7 @@
       </c>
       <c r="M648" s="14"/>
     </row>
-    <row r="649" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649" s="25">
         <v>174773718</v>
       </c>
@@ -52016,7 +52015,7 @@
       </c>
       <c r="M649" s="14"/>
     </row>
-    <row r="650" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650" s="15">
         <v>174774300</v>
       </c>
@@ -52053,7 +52052,7 @@
       </c>
       <c r="M650" s="14"/>
     </row>
-    <row r="651" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651" s="20">
         <v>174774316</v>
       </c>
@@ -52092,7 +52091,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="652" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A652" s="15">
         <v>174774254</v>
       </c>
@@ -52129,7 +52128,7 @@
       </c>
       <c r="M652" s="14"/>
     </row>
-    <row r="653" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A653" s="25">
         <v>174774266</v>
       </c>
@@ -52166,7 +52165,7 @@
       </c>
       <c r="M653" s="14"/>
     </row>
-    <row r="654" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A654" s="20">
         <v>174773654</v>
       </c>
@@ -52205,7 +52204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="655" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A655" s="25">
         <v>174773498</v>
       </c>
@@ -52242,7 +52241,7 @@
       </c>
       <c r="M655" s="14"/>
     </row>
-    <row r="656" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A656" s="29">
         <v>174778172</v>
       </c>
@@ -52279,7 +52278,7 @@
       </c>
       <c r="M656" s="34"/>
     </row>
-    <row r="657" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A657" s="25">
         <v>174778160</v>
       </c>
@@ -52316,7 +52315,7 @@
       </c>
       <c r="M657" s="14"/>
     </row>
-    <row r="658" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A658" s="15">
         <v>174777562</v>
       </c>
@@ -52353,7 +52352,7 @@
       </c>
       <c r="M658" s="14"/>
     </row>
-    <row r="659" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A659" s="25">
         <v>174773674</v>
       </c>
@@ -52390,7 +52389,7 @@
       </c>
       <c r="M659" s="14"/>
     </row>
-    <row r="660" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A660" s="15">
         <v>174773680</v>
       </c>
@@ -52427,7 +52426,7 @@
       </c>
       <c r="M660" s="14"/>
     </row>
-    <row r="661" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A661" s="25">
         <v>174777774</v>
       </c>
@@ -52464,7 +52463,7 @@
       </c>
       <c r="M661" s="14"/>
     </row>
-    <row r="662" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A662" s="15">
         <v>174777484</v>
       </c>
@@ -52501,7 +52500,7 @@
       </c>
       <c r="M662" s="14"/>
     </row>
-    <row r="663" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A663" s="25">
         <v>174774170</v>
       </c>
@@ -52538,7 +52537,7 @@
       </c>
       <c r="M663" s="14"/>
     </row>
-    <row r="664" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A664" s="20">
         <v>174774190</v>
       </c>
@@ -52577,7 +52576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="665" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A665" s="20">
         <v>174773464</v>
       </c>
@@ -52618,7 +52617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="666" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A666" s="15">
         <v>174777538</v>
       </c>
@@ -52655,7 +52654,7 @@
       </c>
       <c r="M666" s="14"/>
     </row>
-    <row r="667" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A667" s="25">
         <v>174777550</v>
       </c>
@@ -52692,7 +52691,7 @@
       </c>
       <c r="M667" s="14"/>
     </row>
-    <row r="668" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A668" s="15">
         <v>174778422</v>
       </c>
@@ -52729,7 +52728,7 @@
       </c>
       <c r="M668" s="14"/>
     </row>
-    <row r="669" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A669" s="25">
         <v>174778346</v>
       </c>
@@ -52766,7 +52765,7 @@
       </c>
       <c r="M669" s="14"/>
     </row>
-    <row r="670" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A670" s="15">
         <v>174778220</v>
       </c>
@@ -52803,7 +52802,7 @@
       </c>
       <c r="M670" s="14"/>
     </row>
-    <row r="671" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A671" s="25">
         <v>174773913</v>
       </c>
@@ -52840,7 +52839,7 @@
       </c>
       <c r="M671" s="14"/>
     </row>
-    <row r="672" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A672" s="15">
         <v>174773909</v>
       </c>
@@ -52877,7 +52876,7 @@
       </c>
       <c r="M672" s="14"/>
     </row>
-    <row r="673" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A673" s="20">
         <v>174774240</v>
       </c>
@@ -52916,7 +52915,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="674" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A674" s="15">
         <v>174778482</v>
       </c>
@@ -52953,7 +52952,7 @@
       </c>
       <c r="M674" s="14"/>
     </row>
-    <row r="675" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A675" s="29">
         <v>174778394</v>
       </c>
@@ -52990,7 +52989,7 @@
       </c>
       <c r="M675" s="34"/>
     </row>
-    <row r="676" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A676" s="15">
         <v>174778578</v>
       </c>
@@ -53027,7 +53026,7 @@
       </c>
       <c r="M676" s="14"/>
     </row>
-    <row r="677" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A677" s="25">
         <v>174773494</v>
       </c>
@@ -53064,7 +53063,7 @@
       </c>
       <c r="M677" s="14"/>
     </row>
-    <row r="678" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A678" s="15">
         <v>174773664</v>
       </c>
@@ -53101,7 +53100,7 @@
       </c>
       <c r="M678" s="14"/>
     </row>
-    <row r="679" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A679" s="25">
         <v>174773586</v>
       </c>
@@ -53138,7 +53137,7 @@
       </c>
       <c r="M679" s="14"/>
     </row>
-    <row r="680" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A680" s="15">
         <v>174773600</v>
       </c>
@@ -53175,7 +53174,7 @@
       </c>
       <c r="M680" s="14"/>
     </row>
-    <row r="681" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A681" s="29">
         <v>174777424</v>
       </c>
@@ -53212,7 +53211,7 @@
       </c>
       <c r="M681" s="34"/>
     </row>
-    <row r="682" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A682" s="15">
         <v>174778464</v>
       </c>
@@ -53249,7 +53248,7 @@
       </c>
       <c r="M682" s="14"/>
     </row>
-    <row r="683" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A683" s="25">
         <v>174777560</v>
       </c>
@@ -53286,7 +53285,7 @@
       </c>
       <c r="M683" s="14"/>
     </row>
-    <row r="684" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A684" s="15">
         <v>174777726</v>
       </c>
@@ -53323,7 +53322,7 @@
       </c>
       <c r="M684" s="14"/>
     </row>
-    <row r="685" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A685" s="25">
         <v>174774332</v>
       </c>
@@ -53360,7 +53359,7 @@
       </c>
       <c r="M685" s="14"/>
     </row>
-    <row r="686" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A686" s="20">
         <v>174773424</v>
       </c>
@@ -53399,7 +53398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="687" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A687" s="25">
         <v>174773879</v>
       </c>
@@ -53436,7 +53435,7 @@
       </c>
       <c r="M687" s="14"/>
     </row>
-    <row r="688" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A688" s="15">
         <v>174778162</v>
       </c>
@@ -53473,7 +53472,7 @@
       </c>
       <c r="M688" s="14"/>
     </row>
-    <row r="689" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A689" s="25">
         <v>174778420</v>
       </c>
@@ -53510,7 +53509,7 @@
       </c>
       <c r="M689" s="14"/>
     </row>
-    <row r="690" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A690" s="15">
         <v>174778546</v>
       </c>
@@ -53547,7 +53546,7 @@
       </c>
       <c r="M690" s="14"/>
     </row>
-    <row r="691" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A691" s="25">
         <v>174778256</v>
       </c>
@@ -53584,7 +53583,7 @@
       </c>
       <c r="M691" s="14"/>
     </row>
-    <row r="692" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A692" s="15">
         <v>174773809</v>
       </c>
@@ -53621,7 +53620,7 @@
       </c>
       <c r="M692" s="14"/>
     </row>
-    <row r="693" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A693" s="20">
         <v>174773512</v>
       </c>
@@ -53660,7 +53659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="694" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A694" s="15">
         <v>174773330</v>
       </c>
@@ -53697,7 +53696,7 @@
       </c>
       <c r="M694" s="14"/>
     </row>
-    <row r="695" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A695" s="29">
         <v>174777734</v>
       </c>
@@ -53734,7 +53733,7 @@
       </c>
       <c r="M695" s="34"/>
     </row>
-    <row r="696" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A696" s="15">
         <v>174777728</v>
       </c>
@@ -53771,7 +53770,7 @@
       </c>
       <c r="M696" s="14"/>
     </row>
-    <row r="697" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A697" s="25">
         <v>174777878</v>
       </c>
@@ -53808,7 +53807,7 @@
       </c>
       <c r="M697" s="14"/>
     </row>
-    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A698" s="15">
         <v>174774492</v>
       </c>
@@ -53845,7 +53844,7 @@
       </c>
       <c r="M698" s="14"/>
     </row>
-    <row r="699" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A699" s="25">
         <v>174774478</v>
       </c>
@@ -53882,7 +53881,7 @@
       </c>
       <c r="M699" s="14"/>
     </row>
-    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A700" s="20">
         <v>174774324</v>
       </c>
@@ -53921,7 +53920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A701" s="29">
         <v>174778290</v>
       </c>
@@ -53958,7 +53957,7 @@
       </c>
       <c r="M701" s="34"/>
     </row>
-    <row r="702" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A702" s="15">
         <v>174777694</v>
       </c>
@@ -53995,7 +53994,7 @@
       </c>
       <c r="M702" s="14"/>
     </row>
-    <row r="703" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A703" s="25">
         <v>174778350</v>
       </c>
@@ -54032,7 +54031,7 @@
       </c>
       <c r="M703" s="14"/>
     </row>
-    <row r="704" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A704" s="20">
         <v>174773773</v>
       </c>
@@ -54071,7 +54070,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="705" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A705" s="25">
         <v>174778252</v>
       </c>
@@ -54108,7 +54107,7 @@
       </c>
       <c r="M705" s="14"/>
     </row>
-    <row r="706" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A706" s="15">
         <v>174774034</v>
       </c>
@@ -54145,7 +54144,7 @@
       </c>
       <c r="M706" s="14"/>
     </row>
-    <row r="707" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A707" s="25">
         <v>174773777</v>
       </c>
@@ -54182,7 +54181,7 @@
       </c>
       <c r="M707" s="14"/>
     </row>
-    <row r="708" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A708" s="15">
         <v>174778110</v>
       </c>
@@ -54219,7 +54218,7 @@
       </c>
       <c r="M708" s="14"/>
     </row>
-    <row r="709" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A709" s="25">
         <v>174773604</v>
       </c>
@@ -54256,7 +54255,7 @@
       </c>
       <c r="M709" s="14"/>
     </row>
-    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A710" s="29">
         <v>174777592</v>
       </c>
@@ -54293,7 +54292,7 @@
       </c>
       <c r="M710" s="34"/>
     </row>
-    <row r="711" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711" s="25">
         <v>174778520</v>
       </c>
@@ -54330,7 +54329,7 @@
       </c>
       <c r="M711" s="14"/>
     </row>
-    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A712" s="15">
         <v>174773708</v>
       </c>
@@ -54367,7 +54366,7 @@
       </c>
       <c r="M712" s="14"/>
     </row>
-    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A713" s="25">
         <v>174774176</v>
       </c>
@@ -54404,7 +54403,7 @@
       </c>
       <c r="M713" s="14"/>
     </row>
-    <row r="714" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A714" s="15">
         <v>174774014</v>
       </c>
@@ -54441,7 +54440,7 @@
       </c>
       <c r="M714" s="14"/>
     </row>
-    <row r="715" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A715" s="29">
         <v>174777642</v>
       </c>
@@ -54478,7 +54477,7 @@
       </c>
       <c r="M715" s="34"/>
     </row>
-    <row r="716" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A716" s="15">
         <v>174777772</v>
       </c>
@@ -54515,7 +54514,7 @@
       </c>
       <c r="M716" s="14"/>
     </row>
-    <row r="717" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A717" s="25">
         <v>174773933</v>
       </c>
@@ -54552,7 +54551,7 @@
       </c>
       <c r="M717" s="14"/>
     </row>
-    <row r="718" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A718" s="15">
         <v>174773749</v>
       </c>
@@ -54589,7 +54588,7 @@
       </c>
       <c r="M718" s="14"/>
     </row>
-    <row r="719" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A719" s="25">
         <v>174773885</v>
       </c>
@@ -54626,7 +54625,7 @@
       </c>
       <c r="M719" s="14"/>
     </row>
-    <row r="720" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A720" s="29">
         <v>174777942</v>
       </c>
@@ -54663,7 +54662,7 @@
       </c>
       <c r="M720" s="34"/>
     </row>
-    <row r="721" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A721" s="25">
         <v>174777998</v>
       </c>
@@ -54700,7 +54699,7 @@
       </c>
       <c r="M721" s="14"/>
     </row>
-    <row r="722" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A722" s="15">
         <v>174773949</v>
       </c>
@@ -54737,7 +54736,7 @@
       </c>
       <c r="M722" s="14"/>
     </row>
-    <row r="723" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A723" s="29">
         <v>174774156</v>
       </c>
@@ -54774,7 +54773,7 @@
       </c>
       <c r="M723" s="34"/>
     </row>
-    <row r="724" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A724" s="15">
         <v>174778094</v>
       </c>
@@ -54811,7 +54810,7 @@
       </c>
       <c r="M724" s="14"/>
     </row>
-    <row r="725" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A725" s="25">
         <v>174778478</v>
       </c>
@@ -54848,7 +54847,7 @@
       </c>
       <c r="M725" s="14"/>
     </row>
-    <row r="726" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A726" s="15">
         <v>174778022</v>
       </c>
@@ -54885,7 +54884,7 @@
       </c>
       <c r="M726" s="14"/>
     </row>
-    <row r="727" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A727" s="25">
         <v>174774026</v>
       </c>
@@ -54922,7 +54921,7 @@
       </c>
       <c r="M727" s="14"/>
     </row>
-    <row r="728" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A728" s="15">
         <v>174773855</v>
       </c>
@@ -54959,7 +54958,7 @@
       </c>
       <c r="M728" s="14"/>
     </row>
-    <row r="729" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A729" s="20">
         <v>174774068</v>
       </c>
@@ -54998,7 +54997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="730" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A730" s="15">
         <v>174777986</v>
       </c>
@@ -55035,7 +55034,7 @@
       </c>
       <c r="M730" s="14"/>
     </row>
-    <row r="731" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A731" s="29">
         <v>174778272</v>
       </c>
@@ -55072,7 +55071,7 @@
       </c>
       <c r="M731" s="34"/>
     </row>
-    <row r="732" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A732" s="15">
         <v>174778406</v>
       </c>
@@ -55109,7 +55108,7 @@
       </c>
       <c r="M732" s="14"/>
     </row>
-    <row r="733" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A733" s="25">
         <v>174773462</v>
       </c>
@@ -55146,7 +55145,7 @@
       </c>
       <c r="M733" s="14"/>
     </row>
-    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A734" s="20">
         <v>174773979</v>
       </c>
@@ -55185,7 +55184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="735" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A735" s="25">
         <v>174778076</v>
       </c>
@@ -55222,7 +55221,7 @@
       </c>
       <c r="M735" s="14"/>
     </row>
-    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A736" s="29">
         <v>174777766</v>
       </c>
@@ -55259,7 +55258,7 @@
       </c>
       <c r="M736" s="34"/>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A737" s="25">
         <v>174777760</v>
       </c>
@@ -55296,7 +55295,7 @@
       </c>
       <c r="M737" s="14"/>
     </row>
-    <row r="738" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A738" s="15">
         <v>174773698</v>
       </c>
@@ -55333,7 +55332,7 @@
       </c>
       <c r="M738" s="14"/>
     </row>
-    <row r="739" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A739" s="25">
         <v>174773422</v>
       </c>
@@ -55370,7 +55369,7 @@
       </c>
       <c r="M739" s="14"/>
     </row>
-    <row r="740" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A740" s="15">
         <v>174774378</v>
       </c>
@@ -55407,7 +55406,7 @@
       </c>
       <c r="M740" s="14"/>
     </row>
-    <row r="741" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A741" s="29">
         <v>174778456</v>
       </c>
@@ -55444,7 +55443,7 @@
       </c>
       <c r="M741" s="34"/>
     </row>
-    <row r="742" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A742" s="15">
         <v>174778460</v>
       </c>
@@ -55481,7 +55480,7 @@
       </c>
       <c r="M742" s="14"/>
     </row>
-    <row r="743" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A743" s="25">
         <v>174774310</v>
       </c>
@@ -55518,7 +55517,7 @@
       </c>
       <c r="M743" s="14"/>
     </row>
-    <row r="744" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A744" s="20">
         <v>174773364</v>
       </c>
@@ -55557,7 +55556,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="745" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A745" s="25">
         <v>174777446</v>
       </c>
@@ -55594,7 +55593,7 @@
       </c>
       <c r="M745" s="14"/>
     </row>
-    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A746" s="29">
         <v>174778048</v>
       </c>
@@ -55631,7 +55630,7 @@
       </c>
       <c r="M746" s="34"/>
     </row>
-    <row r="747" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A747" s="25">
         <v>174777958</v>
       </c>
@@ -55668,7 +55667,7 @@
       </c>
       <c r="M747" s="14"/>
     </row>
-    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A748" s="15">
         <v>174773975</v>
       </c>
@@ -55705,7 +55704,7 @@
       </c>
       <c r="M748" s="14"/>
     </row>
-    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A749" s="25">
         <v>174774146</v>
       </c>
@@ -55742,7 +55741,7 @@
       </c>
       <c r="M749" s="14"/>
     </row>
-    <row r="750" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A750" s="15">
         <v>174778472</v>
       </c>
@@ -55780,13 +55779,7 @@
       <c r="M750" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F750">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="320"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F750"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/C10038019.xlsx
+++ b/doc/C10038019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="500" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9866" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9860" uniqueCount="891">
   <si>
     <t>OVS</t>
   </si>
@@ -2346,9 +2346,6 @@
   </si>
   <si>
     <t>4/22/16 14:13</t>
-  </si>
-  <si>
-    <t>VIBPV</t>
   </si>
   <si>
     <t>4/22/16 9:26</t>
@@ -2725,6 +2722,54 @@
     <rPh sb="5" eb="6">
       <t>fen'zhong</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZRBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUBQV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPBQV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTBPV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/22/16 19:24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2795,7 +2840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2850,8 +2895,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2893,6 +2962,83 @@
       </top>
       <bottom style="thin">
         <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF95B3D7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF95B3D7"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF95B3D7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF95B3D7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2950,7 +3096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3093,6 +3239,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3453,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3470,7 +3718,7 @@
     <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="42.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -3514,7 +3762,7 @@
         <v>302</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -27673,8 +27921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M750"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:XFD450"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27685,7 +27933,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
@@ -27728,7 +27976,7 @@
         <v>302</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -27760,8 +28008,9 @@
       <c r="J2" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>307</v>
+      <c r="K2" s="81" t="e">
+        <f>M2/60/24+I2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>308</v>
@@ -27800,7 +28049,7 @@
         <v>310</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>311</v>
+        <v>890</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>303</v>
@@ -28033,44 +28282,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+    <row r="10" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="64">
         <v>174774230</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="65">
         <v>1461363600</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="65">
         <v>1461370500</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="32">
-        <v>14098</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="66" t="s">
+        <v>889</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="69">
         <v>0</v>
       </c>
     </row>
@@ -28222,44 +28469,44 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+    <row r="15" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48">
         <v>174777926</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="49">
         <v>1461385200</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="49">
         <v>1461393300</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="32">
-        <v>44098</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      <c r="H15" s="51">
+        <v>14098</v>
+      </c>
+      <c r="I15" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="54">
         <v>0</v>
       </c>
     </row>
@@ -28559,7 +28806,7 @@
       </c>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>174778492</v>
       </c>
@@ -28746,44 +28993,42 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+    <row r="29" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="64">
         <v>174778566</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="65">
         <v>1461388200</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="65">
         <v>1461395400</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="32">
-        <v>64098</v>
-      </c>
-      <c r="I29" s="33" t="s">
+      <c r="H29" s="67"/>
+      <c r="I29" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="69">
         <v>0</v>
       </c>
     </row>
@@ -28974,44 +29219,44 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
+    <row r="35" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="48">
         <v>174773460</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="49">
         <v>1461358200</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="49">
         <v>1461362700</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="23">
-        <v>51098</v>
-      </c>
-      <c r="I35" s="24" t="s">
+      <c r="H35" s="51">
+        <v>32098</v>
+      </c>
+      <c r="I35" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="54">
         <v>10</v>
       </c>
     </row>
@@ -29239,44 +29484,44 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+    <row r="42" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48">
         <v>174774204</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="49">
         <v>1461359100</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="49">
         <v>1461366000</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="D42" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="23">
-        <v>32098</v>
-      </c>
-      <c r="I42" s="24" t="s">
+      <c r="H42" s="51">
+        <v>46098</v>
+      </c>
+      <c r="I42" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="52" t="s">
         <v>387</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="53" t="s">
         <v>387</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="54">
         <v>0</v>
       </c>
     </row>
@@ -29578,44 +29823,44 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="20">
+    <row r="51" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="48">
         <v>174773432</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="49">
         <v>1461358200</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="49">
         <v>1461362400</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="D51" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="H51" s="23">
-        <v>23098</v>
-      </c>
-      <c r="I51" s="24" t="s">
+      <c r="H51" s="51" t="s">
+        <v>879</v>
+      </c>
+      <c r="I51" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="54">
         <v>10</v>
       </c>
     </row>
@@ -29880,44 +30125,44 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="20">
+    <row r="59" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="48">
         <v>174774076</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="49">
         <v>1461355500</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="49">
         <v>1461361500</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22" t="s">
+      <c r="D59" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="23">
-        <v>16098</v>
-      </c>
-      <c r="I59" s="24" t="s">
+      <c r="H59" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="I59" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="K59" s="19" t="s">
+      <c r="K59" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L59" s="19" t="s">
+      <c r="L59" s="53" t="s">
         <v>416</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="54">
         <v>55</v>
       </c>
     </row>
@@ -30256,44 +30501,44 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="20">
+    <row r="69" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="48">
         <v>174774048</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="49">
         <v>1461354300</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="49">
         <v>1461359700</v>
       </c>
-      <c r="D69" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="22" t="s">
+      <c r="D69" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F69" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G69" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="23">
-        <v>26098</v>
-      </c>
-      <c r="I69" s="24" t="s">
+      <c r="H69" s="51" t="s">
+        <v>881</v>
+      </c>
+      <c r="I69" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J69" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="K69" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="L69" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="54">
         <v>75</v>
       </c>
     </row>
@@ -30556,42 +30801,44 @@
       </c>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="29">
+    <row r="77" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="48">
         <v>174773642</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="49">
         <v>1461359400</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="49">
         <v>1461368400</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="31" t="s">
+      <c r="D77" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="F77" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33" t="s">
+      <c r="H77" s="51" t="s">
+        <v>886</v>
+      </c>
+      <c r="I77" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="J77" s="33" t="s">
+      <c r="J77" s="52" t="s">
         <v>448</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="K77" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="L77" s="19" t="s">
+      <c r="L77" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="M77" s="34"/>
+      <c r="M77" s="54"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
@@ -31156,42 +31403,44 @@
       </c>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="29">
+    <row r="93" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="48">
         <v>174773536</v>
       </c>
-      <c r="B93" s="30">
+      <c r="B93" s="49">
         <v>1461361800</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="49">
         <v>1461369900</v>
       </c>
-      <c r="D93" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F93" s="31" t="s">
+      <c r="F93" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="G93" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33" t="s">
+      <c r="H93" s="51">
+        <v>44098</v>
+      </c>
+      <c r="I93" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="J93" s="33" t="s">
+      <c r="J93" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="K93" s="19" t="s">
+      <c r="K93" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="L93" s="19" t="s">
+      <c r="L93" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="M93" s="34"/>
+      <c r="M93" s="54"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
@@ -31417,42 +31666,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="29">
+    <row r="100" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="48">
         <v>174777440</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="49">
         <v>1461386400</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="49">
         <v>1461395100</v>
       </c>
-      <c r="D100" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="31" t="s">
+      <c r="D100" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="31" t="s">
+      <c r="F100" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G100" s="31" t="s">
+      <c r="G100" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33" t="s">
+      <c r="H100" s="51">
+        <v>64098</v>
+      </c>
+      <c r="I100" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="J100" s="33" t="s">
+      <c r="J100" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="K100" s="19" t="s">
+      <c r="K100" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="L100" s="19" t="s">
+      <c r="L100" s="53" t="s">
         <v>404</v>
       </c>
-      <c r="M100" s="34"/>
+      <c r="M100" s="54"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
@@ -32679,42 +32930,42 @@
       </c>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="29">
+    <row r="134" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="64">
         <v>174778436</v>
       </c>
-      <c r="B134" s="30">
+      <c r="B134" s="65">
         <v>1461419100</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C134" s="65">
         <v>1461448500</v>
       </c>
-      <c r="D134" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="31" t="s">
+      <c r="D134" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="31" t="s">
+      <c r="G134" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="H134" s="32"/>
-      <c r="I134" s="33" t="s">
+      <c r="H134" s="67"/>
+      <c r="I134" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="J134" s="33" t="s">
+      <c r="J134" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="K134" s="19" t="s">
+      <c r="K134" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="L134" s="19" t="s">
+      <c r="L134" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="M134" s="34"/>
+      <c r="M134" s="69"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
@@ -32979,44 +33230,44 @@
       </c>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="29">
+    <row r="142" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="48">
         <v>174773320</v>
       </c>
-      <c r="B142" s="30">
+      <c r="B142" s="49">
         <v>1461362400</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="49">
         <v>1461372000</v>
       </c>
-      <c r="D142" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" s="31" t="s">
+      <c r="D142" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F142" s="31" t="s">
+      <c r="F142" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G142" s="31" t="s">
+      <c r="G142" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="H142" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="I142" s="33" t="s">
+      <c r="H142" s="51">
+        <v>15098</v>
+      </c>
+      <c r="I142" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="J142" s="33" t="s">
+      <c r="J142" s="52" t="s">
         <v>530</v>
       </c>
-      <c r="K142" s="19" t="s">
+      <c r="K142" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="L142" s="19" t="s">
+      <c r="L142" s="53" t="s">
         <v>530</v>
       </c>
-      <c r="M142" s="34">
+      <c r="M142" s="54">
         <v>0</v>
       </c>
     </row>
@@ -33509,44 +33760,44 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="35">
+    <row r="156" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="48">
         <v>174773877</v>
       </c>
-      <c r="B156" s="36">
+      <c r="B156" s="49">
         <v>1461353100</v>
       </c>
-      <c r="C156" s="36">
+      <c r="C156" s="49">
         <v>1461360600</v>
       </c>
-      <c r="D156" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="37" t="s">
+      <c r="D156" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F156" s="37" t="s">
+      <c r="F156" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G156" s="37" t="s">
+      <c r="G156" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="H156" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I156" s="39" t="s">
+      <c r="H156" s="51" t="s">
+        <v>882</v>
+      </c>
+      <c r="I156" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="J156" s="39" t="s">
+      <c r="J156" s="52" t="s">
         <v>545</v>
       </c>
-      <c r="K156" s="40" t="s">
+      <c r="K156" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L156" s="40" t="s">
+      <c r="L156" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="M156" s="41">
+      <c r="M156" s="54">
         <v>95</v>
       </c>
     </row>
@@ -34339,44 +34590,44 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A178" s="20">
+    <row r="178" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="48">
         <v>174773741</v>
       </c>
-      <c r="B178" s="21">
+      <c r="B178" s="49">
         <v>1461353100</v>
       </c>
-      <c r="C178" s="21">
+      <c r="C178" s="49">
         <v>1461365100</v>
       </c>
-      <c r="D178" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E178" s="22" t="s">
+      <c r="D178" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F178" s="22" t="s">
+      <c r="F178" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G178" s="22" t="s">
+      <c r="G178" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="H178" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="I178" s="24" t="s">
+      <c r="H178" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="I178" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="J178" s="24" t="s">
+      <c r="J178" s="52" t="s">
         <v>570</v>
       </c>
-      <c r="K178" s="19" t="s">
+      <c r="K178" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L178" s="19" t="s">
+      <c r="L178" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="M178" s="6">
+      <c r="M178" s="54">
         <v>95</v>
       </c>
     </row>
@@ -34867,44 +35118,44 @@
         <v>139</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A192" s="20">
+    <row r="192" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="48">
         <v>174773735</v>
       </c>
-      <c r="B192" s="21">
+      <c r="B192" s="49">
         <v>1461360900</v>
       </c>
-      <c r="C192" s="21">
+      <c r="C192" s="49">
         <v>1461372600</v>
       </c>
-      <c r="D192" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E192" s="22" t="s">
+      <c r="D192" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F192" s="22" t="s">
+      <c r="F192" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G192" s="22" t="s">
+      <c r="G192" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="H192" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I192" s="24" t="s">
+      <c r="H192" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="I192" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="J192" s="24" t="s">
+      <c r="J192" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="K192" s="24" t="s">
+      <c r="K192" s="52" t="s">
         <v>581</v>
       </c>
-      <c r="L192" s="19" t="s">
+      <c r="L192" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="M192" s="6">
+      <c r="M192" s="54">
         <v>0</v>
       </c>
     </row>
@@ -36069,42 +36320,42 @@
       </c>
       <c r="M223" s="14"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A224" s="29">
+    <row r="224" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="64">
         <v>174777618</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="65">
         <v>1461380700</v>
       </c>
-      <c r="C224" s="30">
+      <c r="C224" s="65">
         <v>1461385500</v>
       </c>
-      <c r="D224" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E224" s="31" t="s">
+      <c r="D224" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F224" s="31" t="s">
+      <c r="F224" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G224" s="31" t="s">
+      <c r="G224" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="H224" s="32"/>
-      <c r="I224" s="33" t="s">
+      <c r="H224" s="67"/>
+      <c r="I224" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="J224" s="33" t="s">
+      <c r="J224" s="68" t="s">
         <v>614</v>
       </c>
-      <c r="K224" s="19" t="s">
+      <c r="K224" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="L224" s="19" t="s">
+      <c r="L224" s="68" t="s">
         <v>614</v>
       </c>
-      <c r="M224" s="34"/>
+      <c r="M224" s="69"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="25">
@@ -36669,42 +36920,42 @@
       </c>
       <c r="M239" s="14"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A240" s="29">
+    <row r="240" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="64">
         <v>174777968</v>
       </c>
-      <c r="B240" s="30">
+      <c r="B240" s="65">
         <v>1461388500</v>
       </c>
-      <c r="C240" s="30">
+      <c r="C240" s="65">
         <v>1461407700</v>
       </c>
-      <c r="D240" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E240" s="31" t="s">
+      <c r="D240" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="F240" s="31" t="s">
+      <c r="F240" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G240" s="31" t="s">
+      <c r="G240" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="H240" s="32"/>
-      <c r="I240" s="33" t="s">
+      <c r="H240" s="67"/>
+      <c r="I240" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="J240" s="33" t="s">
+      <c r="J240" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="K240" s="19" t="s">
+      <c r="K240" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="L240" s="19" t="s">
+      <c r="L240" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="M240" s="34"/>
+      <c r="M240" s="69"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="25">
@@ -38099,42 +38350,42 @@
       </c>
       <c r="M277" s="14"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A278" s="29">
+    <row r="278" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="64">
         <v>174778286</v>
       </c>
-      <c r="B278" s="30">
+      <c r="B278" s="65">
         <v>1461388800</v>
       </c>
-      <c r="C278" s="30">
+      <c r="C278" s="65">
         <v>1461403200</v>
       </c>
-      <c r="D278" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E278" s="31" t="s">
+      <c r="D278" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E278" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F278" s="31" t="s">
+      <c r="F278" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G278" s="31" t="s">
+      <c r="G278" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="H278" s="32"/>
-      <c r="I278" s="33" t="s">
+      <c r="H278" s="67"/>
+      <c r="I278" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="J278" s="33" t="s">
+      <c r="J278" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="K278" s="19" t="s">
+      <c r="K278" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="L278" s="19" t="s">
+      <c r="L278" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="M278" s="34"/>
+      <c r="M278" s="69"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="25">
@@ -38399,42 +38650,42 @@
       </c>
       <c r="M285" s="14"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A286" s="29">
+    <row r="286" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="64">
         <v>174778100</v>
       </c>
-      <c r="B286" s="30">
+      <c r="B286" s="65">
         <v>1461411600</v>
       </c>
-      <c r="C286" s="30">
+      <c r="C286" s="65">
         <v>1461419700</v>
       </c>
-      <c r="D286" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E286" s="31" t="s">
+      <c r="D286" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F286" s="31" t="s">
+      <c r="F286" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G286" s="31" t="s">
+      <c r="G286" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="H286" s="32"/>
-      <c r="I286" s="33" t="s">
+      <c r="H286" s="67"/>
+      <c r="I286" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="J286" s="33" t="s">
+      <c r="J286" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="K286" s="19" t="s">
+      <c r="K286" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="L286" s="19" t="s">
+      <c r="L286" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="M286" s="34"/>
+      <c r="M286" s="69"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="25">
@@ -38549,44 +38800,44 @@
         <v>115</v>
       </c>
     </row>
-    <row r="290" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="35">
+    <row r="290" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="48">
         <v>174774184</v>
       </c>
-      <c r="B290" s="36">
+      <c r="B290" s="49">
         <v>1461359100</v>
       </c>
-      <c r="C290" s="36">
+      <c r="C290" s="49">
         <v>1461367500</v>
       </c>
-      <c r="D290" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E290" s="37" t="s">
+      <c r="D290" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F290" s="37" t="s">
+      <c r="F290" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G290" s="37" t="s">
+      <c r="G290" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="H290" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="I290" s="39" t="s">
+      <c r="H290" s="51">
+        <v>16098</v>
+      </c>
+      <c r="I290" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="J290" s="39" t="s">
+      <c r="J290" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="K290" s="39" t="s">
+      <c r="K290" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="L290" s="40" t="s">
+      <c r="L290" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="M290" s="41">
+      <c r="M290" s="54">
         <v>0</v>
       </c>
     </row>
@@ -39038,42 +39289,44 @@
       </c>
       <c r="M302" s="14"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A303" s="29">
+    <row r="303" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="48">
         <v>174777898</v>
       </c>
-      <c r="B303" s="30">
+      <c r="B303" s="49">
         <v>1461382500</v>
       </c>
-      <c r="C303" s="30">
+      <c r="C303" s="49">
         <v>1461388500</v>
       </c>
-      <c r="D303" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E303" s="31" t="s">
+      <c r="D303" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E303" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F303" s="31" t="s">
+      <c r="F303" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G303" s="31" t="s">
+      <c r="G303" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="H303" s="32"/>
-      <c r="I303" s="33" t="s">
+      <c r="H303" s="51">
+        <v>85098</v>
+      </c>
+      <c r="I303" s="52" t="s">
         <v>525</v>
       </c>
-      <c r="J303" s="33" t="s">
+      <c r="J303" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="K303" s="19" t="s">
+      <c r="K303" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="L303" s="19" t="s">
+      <c r="L303" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="M303" s="34"/>
+      <c r="M303" s="54"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="15">
@@ -39262,44 +39515,44 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A309" s="20">
+    <row r="309" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="48">
         <v>174773988</v>
       </c>
-      <c r="B309" s="21">
+      <c r="B309" s="49">
         <v>1461358200</v>
       </c>
-      <c r="C309" s="21">
+      <c r="C309" s="49">
         <v>1461370500</v>
       </c>
-      <c r="D309" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E309" s="22" t="s">
+      <c r="D309" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E309" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F309" s="22" t="s">
+      <c r="F309" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="G309" s="22" t="s">
+      <c r="G309" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="H309" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I309" s="24" t="s">
+      <c r="H309" s="51" t="s">
+        <v>887</v>
+      </c>
+      <c r="I309" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="J309" s="24" t="s">
+      <c r="J309" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="K309" s="19" t="s">
+      <c r="K309" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="L309" s="19" t="s">
+      <c r="L309" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="M309" s="6">
+      <c r="M309" s="54">
         <v>10</v>
       </c>
     </row>
@@ -39525,42 +39778,42 @@
       </c>
       <c r="M315" s="14"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A316" s="29">
+    <row r="316" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="64">
         <v>174778164</v>
       </c>
-      <c r="B316" s="30">
+      <c r="B316" s="65">
         <v>1461388200</v>
       </c>
-      <c r="C316" s="30">
+      <c r="C316" s="65">
         <v>1461397800</v>
       </c>
-      <c r="D316" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E316" s="31" t="s">
+      <c r="D316" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E316" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F316" s="31" t="s">
+      <c r="F316" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G316" s="31" t="s">
+      <c r="G316" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="H316" s="32"/>
-      <c r="I316" s="33" t="s">
+      <c r="H316" s="67"/>
+      <c r="I316" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="J316" s="33" t="s">
+      <c r="J316" s="68" t="s">
         <v>693</v>
       </c>
-      <c r="K316" s="19" t="s">
+      <c r="K316" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="L316" s="19" t="s">
+      <c r="L316" s="68" t="s">
         <v>693</v>
       </c>
-      <c r="M316" s="34"/>
+      <c r="M316" s="69"/>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="25">
@@ -39934,45 +40187,43 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A327" s="20">
+    <row r="327" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="56">
         <v>174773574</v>
       </c>
-      <c r="B327" s="21">
+      <c r="B327" s="57">
         <v>1461360600</v>
       </c>
-      <c r="C327" s="21">
+      <c r="C327" s="57">
         <v>1461366000</v>
       </c>
-      <c r="D327" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E327" s="22" t="s">
+      <c r="D327" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E327" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F327" s="22" t="s">
+      <c r="F327" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G327" s="22" t="s">
+      <c r="G327" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="H327" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I327" s="24" t="s">
+      <c r="H327" s="59"/>
+      <c r="I327" s="60" t="s">
         <v>545</v>
       </c>
-      <c r="J327" s="24" t="s">
+      <c r="J327" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="K327" s="24" t="s">
+      <c r="K327" s="60" t="s">
         <v>545</v>
       </c>
-      <c r="L327" s="19" t="s">
+      <c r="L327" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="M327" s="6">
-        <v>0</v>
+      <c r="M327" s="62">
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
@@ -40427,44 +40678,42 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="35">
+    <row r="340" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="56">
         <v>174774178</v>
       </c>
-      <c r="B340" s="36">
+      <c r="B340" s="57">
         <v>1461353400</v>
       </c>
-      <c r="C340" s="36">
+      <c r="C340" s="57">
         <v>1461369000</v>
       </c>
-      <c r="D340" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E340" s="37" t="s">
+      <c r="D340" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="F340" s="37" t="s">
+      <c r="F340" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G340" s="37" t="s">
+      <c r="G340" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="H340" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I340" s="39" t="s">
+      <c r="H340" s="59"/>
+      <c r="I340" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="J340" s="39" t="s">
+      <c r="J340" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="K340" s="40" t="s">
+      <c r="K340" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L340" s="40" t="s">
+      <c r="L340" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="M340" s="41">
+      <c r="M340" s="62">
         <v>90</v>
       </c>
     </row>
@@ -40616,42 +40865,44 @@
       </c>
       <c r="M344" s="14"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A345" s="29">
+    <row r="345" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="48">
         <v>174778028</v>
       </c>
-      <c r="B345" s="30">
+      <c r="B345" s="49">
         <v>1461386400</v>
       </c>
-      <c r="C345" s="30">
+      <c r="C345" s="49">
         <v>1461396300</v>
       </c>
-      <c r="D345" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E345" s="31" t="s">
+      <c r="D345" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E345" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F345" s="31" t="s">
+      <c r="F345" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G345" s="31" t="s">
+      <c r="G345" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="H345" s="32"/>
-      <c r="I345" s="33" t="s">
+      <c r="H345" s="51" t="s">
+        <v>883</v>
+      </c>
+      <c r="I345" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="J345" s="33" t="s">
+      <c r="J345" s="52" t="s">
         <v>712</v>
       </c>
-      <c r="K345" s="19" t="s">
+      <c r="K345" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="L345" s="19" t="s">
+      <c r="L345" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="M345" s="34"/>
+      <c r="M345" s="54"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="15">
@@ -41440,42 +41691,42 @@
       </c>
       <c r="M366" s="14"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A367" s="29">
+    <row r="367" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="64">
         <v>174777740</v>
       </c>
-      <c r="B367" s="30">
+      <c r="B367" s="65">
         <v>1461390300</v>
       </c>
-      <c r="C367" s="30">
+      <c r="C367" s="65">
         <v>1461403500</v>
       </c>
-      <c r="D367" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E367" s="31" t="s">
+      <c r="D367" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E367" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F367" s="31" t="s">
+      <c r="F367" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G367" s="31" t="s">
+      <c r="G367" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="H367" s="32"/>
-      <c r="I367" s="33" t="s">
+      <c r="H367" s="67"/>
+      <c r="I367" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="J367" s="33" t="s">
+      <c r="J367" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="K367" s="19" t="s">
+      <c r="K367" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="L367" s="19" t="s">
+      <c r="L367" s="68" t="s">
         <v>379</v>
       </c>
-      <c r="M367" s="34"/>
+      <c r="M367" s="69"/>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="15">
@@ -41886,42 +42137,42 @@
       </c>
       <c r="M378" s="14"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A379" s="29">
+    <row r="379" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="64">
         <v>174777586</v>
       </c>
-      <c r="B379" s="30">
+      <c r="B379" s="65">
         <v>1461391500</v>
       </c>
-      <c r="C379" s="30">
+      <c r="C379" s="65">
         <v>1461397500</v>
       </c>
-      <c r="D379" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E379" s="31" t="s">
+      <c r="D379" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E379" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F379" s="31" t="s">
+      <c r="F379" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G379" s="31" t="s">
+      <c r="G379" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="H379" s="32"/>
-      <c r="I379" s="33" t="s">
+      <c r="H379" s="67"/>
+      <c r="I379" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="J379" s="33" t="s">
+      <c r="J379" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="K379" s="19" t="s">
+      <c r="K379" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="L379" s="19" t="s">
+      <c r="L379" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="M379" s="34"/>
+      <c r="M379" s="69"/>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="15">
@@ -42073,44 +42324,42 @@
         <v>160</v>
       </c>
     </row>
-    <row r="384" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="35">
+    <row r="384" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="56">
         <v>174773791</v>
       </c>
-      <c r="B384" s="36">
+      <c r="B384" s="57">
         <v>1461354000</v>
       </c>
-      <c r="C384" s="36">
+      <c r="C384" s="57">
         <v>1461360300</v>
       </c>
-      <c r="D384" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E384" s="37" t="s">
+      <c r="D384" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E384" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F384" s="37" t="s">
+      <c r="F384" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G384" s="37" t="s">
+      <c r="G384" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="H384" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="I384" s="39" t="s">
+      <c r="H384" s="59"/>
+      <c r="I384" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="J384" s="39" t="s">
+      <c r="J384" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="K384" s="40" t="s">
+      <c r="K384" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L384" s="40" t="s">
+      <c r="L384" s="61" t="s">
         <v>570</v>
       </c>
-      <c r="M384" s="41">
+      <c r="M384" s="62">
         <v>80</v>
       </c>
     </row>
@@ -42301,44 +42550,42 @@
         <v>150</v>
       </c>
     </row>
-    <row r="390" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="35">
+    <row r="390" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="56">
         <v>174773382</v>
       </c>
-      <c r="B390" s="36">
+      <c r="B390" s="57">
         <v>1461353400</v>
       </c>
-      <c r="C390" s="36">
+      <c r="C390" s="57">
         <v>1461362400</v>
       </c>
-      <c r="D390" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E390" s="37" t="s">
+      <c r="D390" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E390" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F390" s="37" t="s">
+      <c r="F390" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G390" s="37" t="s">
+      <c r="G390" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="H390" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="I390" s="39" t="s">
+      <c r="H390" s="59"/>
+      <c r="I390" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="J390" s="39" t="s">
+      <c r="J390" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="K390" s="40" t="s">
+      <c r="K390" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L390" s="40" t="s">
+      <c r="L390" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="M390" s="41">
+      <c r="M390" s="62">
         <v>90</v>
       </c>
     </row>
@@ -42790,42 +43037,42 @@
       </c>
       <c r="M402" s="14"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A403" s="29">
+    <row r="403" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="64">
         <v>174777474</v>
       </c>
-      <c r="B403" s="30">
+      <c r="B403" s="65">
         <v>1461389400</v>
       </c>
-      <c r="C403" s="30">
+      <c r="C403" s="65">
         <v>1461402000</v>
       </c>
-      <c r="D403" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E403" s="31" t="s">
+      <c r="D403" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E403" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="F403" s="31" t="s">
+      <c r="F403" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G403" s="31" t="s">
+      <c r="G403" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="H403" s="32"/>
-      <c r="I403" s="33" t="s">
+      <c r="H403" s="67"/>
+      <c r="I403" s="68" t="s">
         <v>705</v>
       </c>
-      <c r="J403" s="33" t="s">
+      <c r="J403" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="K403" s="19" t="s">
+      <c r="K403" s="68" t="s">
         <v>705</v>
       </c>
-      <c r="L403" s="19" t="s">
+      <c r="L403" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="M403" s="34"/>
+      <c r="M403" s="69"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="15">
@@ -42975,42 +43222,42 @@
       </c>
       <c r="M407" s="14"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A408" s="29">
+    <row r="408" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="64">
         <v>174778188</v>
       </c>
-      <c r="B408" s="30">
+      <c r="B408" s="65">
         <v>1461387000</v>
       </c>
-      <c r="C408" s="30">
+      <c r="C408" s="65">
         <v>1461402900</v>
       </c>
-      <c r="D408" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E408" s="31" t="s">
+      <c r="D408" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E408" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F408" s="31" t="s">
+      <c r="F408" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G408" s="31" t="s">
+      <c r="G408" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="H408" s="32"/>
-      <c r="I408" s="33" t="s">
+      <c r="H408" s="67"/>
+      <c r="I408" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="J408" s="33" t="s">
+      <c r="J408" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="K408" s="19" t="s">
+      <c r="K408" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="L408" s="19" t="s">
+      <c r="L408" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="M408" s="34"/>
+      <c r="M408" s="69"/>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="25">
@@ -43160,42 +43407,42 @@
       </c>
       <c r="M412" s="14"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A413" s="29">
+    <row r="413" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="64">
         <v>174778332</v>
       </c>
-      <c r="B413" s="30">
+      <c r="B413" s="65">
         <v>1461380700</v>
       </c>
-      <c r="C413" s="30">
+      <c r="C413" s="65">
         <v>1461389100</v>
       </c>
-      <c r="D413" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E413" s="31" t="s">
+      <c r="D413" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E413" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F413" s="31" t="s">
+      <c r="F413" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G413" s="31" t="s">
+      <c r="G413" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="H413" s="32"/>
-      <c r="I413" s="33" t="s">
+      <c r="H413" s="67"/>
+      <c r="I413" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="J413" s="33" t="s">
+      <c r="J413" s="68" t="s">
         <v>563</v>
       </c>
-      <c r="K413" s="19" t="s">
+      <c r="K413" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="L413" s="19" t="s">
+      <c r="L413" s="68" t="s">
         <v>563</v>
       </c>
-      <c r="M413" s="34"/>
+      <c r="M413" s="69"/>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="15">
@@ -43421,42 +43668,42 @@
       </c>
       <c r="M419" s="14"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A420" s="29">
+    <row r="420" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="64">
         <v>174778544</v>
       </c>
-      <c r="B420" s="30">
+      <c r="B420" s="65">
         <v>1461394800</v>
       </c>
-      <c r="C420" s="30">
+      <c r="C420" s="65">
         <v>1461407700</v>
       </c>
-      <c r="D420" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E420" s="31" t="s">
+      <c r="D420" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E420" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F420" s="31" t="s">
+      <c r="F420" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G420" s="31" t="s">
+      <c r="G420" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="H420" s="32"/>
-      <c r="I420" s="33" t="s">
+      <c r="H420" s="67"/>
+      <c r="I420" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="J420" s="33" t="s">
+      <c r="J420" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="K420" s="19" t="s">
+      <c r="K420" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="L420" s="19" t="s">
+      <c r="L420" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="M420" s="34"/>
+      <c r="M420" s="69"/>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="25">
@@ -43832,45 +44079,43 @@
         <v>116</v>
       </c>
     </row>
-    <row r="431" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="35">
+    <row r="431" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="56">
         <v>174773889</v>
       </c>
-      <c r="B431" s="36">
+      <c r="B431" s="57">
         <v>1461359400</v>
       </c>
-      <c r="C431" s="36">
+      <c r="C431" s="57">
         <v>1461370200</v>
       </c>
-      <c r="D431" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E431" s="37" t="s">
+      <c r="D431" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E431" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F431" s="37" t="s">
+      <c r="F431" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G431" s="37" t="s">
+      <c r="G431" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="H431" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="I431" s="39" t="s">
+      <c r="H431" s="59"/>
+      <c r="I431" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="J431" s="39" t="s">
+      <c r="J431" s="60" t="s">
         <v>561</v>
       </c>
-      <c r="K431" s="39" t="s">
+      <c r="K431" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="L431" s="40" t="s">
+      <c r="L431" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="M431" s="41">
-        <v>0</v>
+      <c r="M431" s="62">
+        <v>35</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
@@ -44134,44 +44379,42 @@
         <v>115</v>
       </c>
     </row>
-    <row r="439" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="35">
+    <row r="439" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="56">
         <v>174773490</v>
       </c>
-      <c r="B439" s="36">
+      <c r="B439" s="57">
         <v>1461356700</v>
       </c>
-      <c r="C439" s="36">
+      <c r="C439" s="57">
         <v>1461365700</v>
       </c>
-      <c r="D439" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E439" s="37" t="s">
+      <c r="D439" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E439" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F439" s="37" t="s">
+      <c r="F439" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="G439" s="37" t="s">
+      <c r="G439" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="H439" s="38" t="s">
-        <v>758</v>
-      </c>
-      <c r="I439" s="39" t="s">
+      <c r="H439" s="59"/>
+      <c r="I439" s="60" t="s">
         <v>663</v>
       </c>
-      <c r="J439" s="39" t="s">
+      <c r="J439" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="K439" s="40" t="s">
+      <c r="K439" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L439" s="40" t="s">
+      <c r="L439" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="M439" s="41">
+      <c r="M439" s="62">
         <v>35</v>
       </c>
     </row>
@@ -44212,42 +44455,42 @@
       </c>
       <c r="M440" s="14"/>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A441" s="29">
+    <row r="441" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="64">
         <v>174778308</v>
       </c>
-      <c r="B441" s="30">
+      <c r="B441" s="65">
         <v>1461386100</v>
       </c>
-      <c r="C441" s="30">
+      <c r="C441" s="65">
         <v>1461401100</v>
       </c>
-      <c r="D441" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E441" s="31" t="s">
+      <c r="D441" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E441" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F441" s="31" t="s">
+      <c r="F441" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G441" s="31" t="s">
+      <c r="G441" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="H441" s="32"/>
-      <c r="I441" s="33" t="s">
+      <c r="H441" s="67"/>
+      <c r="I441" s="68" t="s">
         <v>438</v>
       </c>
-      <c r="J441" s="33" t="s">
+      <c r="J441" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="K441" s="19" t="s">
+      <c r="K441" s="68" t="s">
         <v>438</v>
       </c>
-      <c r="L441" s="19" t="s">
+      <c r="L441" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="M441" s="34"/>
+      <c r="M441" s="69"/>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="15">
@@ -44347,16 +44590,16 @@
       </c>
       <c r="H444" s="18"/>
       <c r="I444" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="J444" s="19" t="s">
         <v>759</v>
       </c>
-      <c r="J444" s="19" t="s">
-        <v>760</v>
-      </c>
       <c r="K444" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="L444" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="L444" s="19" t="s">
-        <v>760</v>
       </c>
       <c r="M444" s="14"/>
     </row>
@@ -44458,16 +44701,16 @@
       </c>
       <c r="H447" s="28"/>
       <c r="I447" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J447" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="J447" s="19" t="s">
-        <v>762</v>
-      </c>
       <c r="K447" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="L447" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="L447" s="19" t="s">
-        <v>762</v>
       </c>
       <c r="M447" s="14"/>
     </row>
@@ -44495,13 +44738,13 @@
       </c>
       <c r="H448" s="18"/>
       <c r="I448" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J448" s="19" t="s">
         <v>524</v>
       </c>
       <c r="K448" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L448" s="19" t="s">
         <v>524</v>
@@ -44535,13 +44778,13 @@
         <v>562</v>
       </c>
       <c r="J449" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K449" s="19" t="s">
         <v>562</v>
       </c>
       <c r="L449" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M449" s="14"/>
     </row>
@@ -44569,16 +44812,16 @@
       </c>
       <c r="H450" s="18"/>
       <c r="I450" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="J450" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="J450" s="19" t="s">
-        <v>766</v>
-      </c>
       <c r="K450" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="L450" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="L450" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="M450" s="14"/>
     </row>
@@ -44606,13 +44849,13 @@
       </c>
       <c r="H451" s="28"/>
       <c r="I451" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J451" s="19" t="s">
         <v>521</v>
       </c>
       <c r="K451" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L451" s="19" t="s">
         <v>521</v>
@@ -44835,13 +45078,13 @@
         <v>513</v>
       </c>
       <c r="J457" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K457" s="19" t="s">
         <v>513</v>
       </c>
       <c r="L457" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M457" s="14"/>
     </row>
@@ -44911,52 +45154,52 @@
         <v>417</v>
       </c>
       <c r="J459" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K459" s="19" t="s">
         <v>417</v>
       </c>
       <c r="L459" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M459" s="14"/>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A460" s="29">
+    <row r="460" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="64">
         <v>174778240</v>
       </c>
-      <c r="B460" s="30">
+      <c r="B460" s="65">
         <v>1461395100</v>
       </c>
-      <c r="C460" s="30">
+      <c r="C460" s="65">
         <v>1461409200</v>
       </c>
-      <c r="D460" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E460" s="31" t="s">
+      <c r="D460" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E460" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="F460" s="31" t="s">
+      <c r="F460" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G460" s="31" t="s">
+      <c r="G460" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="H460" s="32"/>
-      <c r="I460" s="33" t="s">
+      <c r="H460" s="67"/>
+      <c r="I460" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="J460" s="33" t="s">
+      <c r="J460" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="K460" s="19" t="s">
+      <c r="K460" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="L460" s="19" t="s">
+      <c r="L460" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="M460" s="34"/>
+      <c r="M460" s="69"/>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="25">
@@ -45019,13 +45262,13 @@
       </c>
       <c r="H462" s="18"/>
       <c r="I462" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J462" s="19" t="s">
         <v>355</v>
       </c>
       <c r="K462" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L462" s="19" t="s">
         <v>355</v>
@@ -45059,13 +45302,13 @@
         <v>357</v>
       </c>
       <c r="J463" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K463" s="19" t="s">
         <v>357</v>
       </c>
       <c r="L463" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M463" s="14"/>
     </row>
@@ -45108,44 +45351,44 @@
         <v>115</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A465" s="20">
+    <row r="465" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="56">
         <v>174773706</v>
       </c>
-      <c r="B465" s="21">
+      <c r="B465" s="57">
         <v>1461356100</v>
       </c>
-      <c r="C465" s="21">
+      <c r="C465" s="57">
         <v>1461360900</v>
       </c>
-      <c r="D465" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E465" s="22" t="s">
+      <c r="D465" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E465" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F465" s="22" t="s">
+      <c r="F465" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G465" s="22" t="s">
+      <c r="G465" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="H465" s="23" t="s">
+      <c r="H465" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="I465" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="J465" s="24" t="s">
+      <c r="I465" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="J465" s="60" t="s">
         <v>581</v>
       </c>
-      <c r="K465" s="19" t="s">
+      <c r="K465" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L465" s="19" t="s">
+      <c r="L465" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="M465" s="6">
+      <c r="M465" s="62">
         <v>45</v>
       </c>
     </row>
@@ -45186,42 +45429,42 @@
       </c>
       <c r="M466" s="14"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A467" s="29">
+    <row r="467" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="64">
         <v>174778306</v>
       </c>
-      <c r="B467" s="30">
+      <c r="B467" s="65">
         <v>1461393000</v>
       </c>
-      <c r="C467" s="30">
+      <c r="C467" s="65">
         <v>1461405600</v>
       </c>
-      <c r="D467" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E467" s="31" t="s">
+      <c r="D467" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E467" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F467" s="31" t="s">
+      <c r="F467" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G467" s="31" t="s">
+      <c r="G467" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="H467" s="32"/>
-      <c r="I467" s="33" t="s">
+      <c r="H467" s="67"/>
+      <c r="I467" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="J467" s="33" t="s">
+      <c r="J467" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="K467" s="19" t="s">
+      <c r="K467" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="L467" s="19" t="s">
+      <c r="L467" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="M467" s="34"/>
+      <c r="M467" s="69"/>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="15">
@@ -45287,13 +45530,13 @@
         <v>625</v>
       </c>
       <c r="J469" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K469" s="19" t="s">
         <v>625</v>
       </c>
       <c r="L469" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M469" s="14"/>
     </row>
@@ -45324,10 +45567,10 @@
         <v>321</v>
       </c>
       <c r="J470" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="K470" s="19" t="s">
         <v>774</v>
-      </c>
-      <c r="K470" s="19" t="s">
-        <v>775</v>
       </c>
       <c r="L470" s="19" t="s">
         <v>303</v>
@@ -45474,13 +45717,13 @@
         <v>710</v>
       </c>
       <c r="J474" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K474" s="19" t="s">
         <v>710</v>
       </c>
       <c r="L474" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M474" s="14"/>
     </row>
@@ -45514,7 +45757,7 @@
         <v>523</v>
       </c>
       <c r="K475" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L475" s="19" t="s">
         <v>303</v>
@@ -45523,45 +45766,43 @@
         <v>100</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A476" s="20">
+    <row r="476" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="56">
         <v>174774108</v>
       </c>
-      <c r="B476" s="21">
+      <c r="B476" s="57">
         <v>1461359100</v>
       </c>
-      <c r="C476" s="21">
+      <c r="C476" s="57">
         <v>1461367800</v>
       </c>
-      <c r="D476" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E476" s="22" t="s">
+      <c r="D476" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E476" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F476" s="22" t="s">
+      <c r="F476" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G476" s="22" t="s">
+      <c r="G476" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="H476" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I476" s="24" t="s">
+      <c r="H476" s="59"/>
+      <c r="I476" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="J476" s="24" t="s">
+      <c r="J476" s="60" t="s">
         <v>724</v>
       </c>
-      <c r="K476" s="24" t="s">
+      <c r="K476" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="L476" s="19" t="s">
+      <c r="L476" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="M476" s="6">
-        <v>0</v>
+      <c r="M476" s="62">
+        <v>40</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.2">
@@ -45591,13 +45832,13 @@
         <v>571</v>
       </c>
       <c r="J477" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K477" s="19" t="s">
         <v>571</v>
       </c>
       <c r="L477" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M477" s="14"/>
     </row>
@@ -45699,16 +45940,16 @@
       </c>
       <c r="H480" s="18"/>
       <c r="I480" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="J480" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="J480" s="19" t="s">
-        <v>779</v>
-      </c>
       <c r="K480" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="L480" s="19" t="s">
         <v>778</v>
-      </c>
-      <c r="L480" s="19" t="s">
-        <v>779</v>
       </c>
       <c r="M480" s="14"/>
     </row>
@@ -45786,42 +46027,42 @@
       </c>
       <c r="M482" s="14"/>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A483" s="29">
+    <row r="483" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="64">
         <v>174778494</v>
       </c>
-      <c r="B483" s="30">
+      <c r="B483" s="65">
         <v>1461388800</v>
       </c>
-      <c r="C483" s="30">
+      <c r="C483" s="65">
         <v>1461400500</v>
       </c>
-      <c r="D483" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E483" s="31" t="s">
+      <c r="D483" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E483" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F483" s="31" t="s">
+      <c r="F483" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G483" s="31" t="s">
+      <c r="G483" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="H483" s="32"/>
-      <c r="I483" s="33" t="s">
+      <c r="H483" s="67"/>
+      <c r="I483" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="J483" s="33" t="s">
+      <c r="J483" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="K483" s="19" t="s">
+      <c r="K483" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="L483" s="19" t="s">
+      <c r="L483" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="M483" s="34"/>
+      <c r="M483" s="69"/>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="15">
@@ -45971,42 +46212,42 @@
       </c>
       <c r="M487" s="14"/>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A488" s="29">
+    <row r="488" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="64">
         <v>174777930</v>
       </c>
-      <c r="B488" s="30">
+      <c r="B488" s="65">
         <v>1461382500</v>
       </c>
-      <c r="C488" s="30">
+      <c r="C488" s="65">
         <v>1461389700</v>
       </c>
-      <c r="D488" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E488" s="31" t="s">
+      <c r="D488" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E488" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F488" s="31" t="s">
+      <c r="F488" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G488" s="31" t="s">
+      <c r="G488" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="H488" s="32"/>
-      <c r="I488" s="33" t="s">
+      <c r="H488" s="67"/>
+      <c r="I488" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="J488" s="33" t="s">
+      <c r="J488" s="68" t="s">
         <v>554</v>
       </c>
-      <c r="K488" s="19" t="s">
+      <c r="K488" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="L488" s="19" t="s">
+      <c r="L488" s="68" t="s">
         <v>554</v>
       </c>
-      <c r="M488" s="34"/>
+      <c r="M488" s="69"/>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="25">
@@ -46183,52 +46424,52 @@
         <v>401</v>
       </c>
       <c r="J493" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K493" s="19" t="s">
         <v>401</v>
       </c>
       <c r="L493" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M493" s="14"/>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A494" s="29">
+    <row r="494" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="64">
         <v>174778376</v>
       </c>
-      <c r="B494" s="30">
+      <c r="B494" s="65">
         <v>1461411300</v>
       </c>
-      <c r="C494" s="30">
+      <c r="C494" s="65">
         <v>1461422700</v>
       </c>
-      <c r="D494" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E494" s="31" t="s">
+      <c r="D494" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E494" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F494" s="31" t="s">
+      <c r="F494" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G494" s="31" t="s">
+      <c r="G494" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="H494" s="32"/>
-      <c r="I494" s="33" t="s">
+      <c r="H494" s="67"/>
+      <c r="I494" s="68" t="s">
         <v>595</v>
       </c>
-      <c r="J494" s="33" t="s">
+      <c r="J494" s="68" t="s">
         <v>644</v>
       </c>
-      <c r="K494" s="19" t="s">
+      <c r="K494" s="68" t="s">
         <v>595</v>
       </c>
-      <c r="L494" s="19" t="s">
+      <c r="L494" s="68" t="s">
         <v>644</v>
       </c>
-      <c r="M494" s="34"/>
+      <c r="M494" s="69"/>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="25">
@@ -46254,13 +46495,13 @@
       </c>
       <c r="H495" s="28"/>
       <c r="I495" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J495" s="19" t="s">
         <v>576</v>
       </c>
       <c r="K495" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L495" s="19" t="s">
         <v>576</v>
@@ -46330,13 +46571,13 @@
       </c>
       <c r="H497" s="28"/>
       <c r="I497" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J497" s="19" t="s">
         <v>335</v>
       </c>
       <c r="K497" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L497" s="19" t="s">
         <v>335</v>
@@ -46367,13 +46608,13 @@
       </c>
       <c r="H498" s="18"/>
       <c r="I498" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J498" s="19" t="s">
         <v>640</v>
       </c>
       <c r="K498" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L498" s="19" t="s">
         <v>640</v>
@@ -46454,42 +46695,42 @@
       </c>
       <c r="M500" s="14"/>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A501" s="29">
+    <row r="501" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="64">
         <v>174777996</v>
       </c>
-      <c r="B501" s="30">
+      <c r="B501" s="65">
         <v>1461395100</v>
       </c>
-      <c r="C501" s="30">
+      <c r="C501" s="65">
         <v>1461409500</v>
       </c>
-      <c r="D501" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E501" s="31" t="s">
+      <c r="D501" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E501" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F501" s="31" t="s">
+      <c r="F501" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="G501" s="31" t="s">
+      <c r="G501" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="H501" s="32"/>
-      <c r="I501" s="33" t="s">
+      <c r="H501" s="67"/>
+      <c r="I501" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="J501" s="33" t="s">
+      <c r="J501" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="K501" s="19" t="s">
+      <c r="K501" s="68" t="s">
         <v>404</v>
       </c>
-      <c r="L501" s="19" t="s">
+      <c r="L501" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="M501" s="34"/>
+      <c r="M501" s="69"/>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="15">
@@ -46552,16 +46793,16 @@
       </c>
       <c r="H503" s="28"/>
       <c r="I503" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="J503" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="J503" s="19" t="s">
-        <v>785</v>
-      </c>
       <c r="K503" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="L503" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="L503" s="19" t="s">
-        <v>785</v>
       </c>
       <c r="M503" s="14"/>
     </row>
@@ -46604,45 +46845,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A505" s="20">
+    <row r="505" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="56">
         <v>174773817</v>
       </c>
-      <c r="B505" s="21">
+      <c r="B505" s="57">
         <v>1461360000</v>
       </c>
-      <c r="C505" s="21">
+      <c r="C505" s="57">
         <v>1461374100</v>
       </c>
-      <c r="D505" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E505" s="22" t="s">
+      <c r="D505" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E505" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F505" s="22" t="s">
+      <c r="F505" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G505" s="22" t="s">
+      <c r="G505" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="H505" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I505" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="J505" s="24" t="s">
+      <c r="H505" s="59"/>
+      <c r="I505" s="60" t="s">
+        <v>785</v>
+      </c>
+      <c r="J505" s="60" t="s">
         <v>728</v>
       </c>
-      <c r="K505" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="L505" s="19" t="s">
+      <c r="K505" s="60" t="s">
+        <v>785</v>
+      </c>
+      <c r="L505" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="M505" s="6">
-        <v>0</v>
+      <c r="M505" s="62">
+        <v>25</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.2">
@@ -46746,13 +46985,13 @@
         <v>452</v>
       </c>
       <c r="J508" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K508" s="19" t="s">
         <v>452</v>
       </c>
       <c r="L508" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M508" s="14"/>
     </row>
@@ -46780,16 +47019,16 @@
       </c>
       <c r="H509" s="28"/>
       <c r="I509" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="J509" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="J509" s="19" t="s">
-        <v>789</v>
-      </c>
       <c r="K509" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="L509" s="19" t="s">
         <v>788</v>
-      </c>
-      <c r="L509" s="19" t="s">
-        <v>789</v>
       </c>
       <c r="M509" s="14"/>
     </row>
@@ -46817,16 +47056,16 @@
       </c>
       <c r="H510" s="18"/>
       <c r="I510" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="J510" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="J510" s="19" t="s">
-        <v>791</v>
-      </c>
       <c r="K510" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="L510" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="L510" s="19" t="s">
-        <v>791</v>
       </c>
       <c r="M510" s="14"/>
     </row>
@@ -46857,10 +47096,10 @@
         <v>659</v>
       </c>
       <c r="J511" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="K511" s="19" t="s">
         <v>792</v>
-      </c>
-      <c r="K511" s="19" t="s">
-        <v>793</v>
       </c>
       <c r="L511" s="19" t="s">
         <v>303</v>
@@ -46869,42 +47108,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A512" s="29">
+    <row r="512" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="64">
         <v>174773712</v>
       </c>
-      <c r="B512" s="30">
+      <c r="B512" s="65">
         <v>1461364800</v>
       </c>
-      <c r="C512" s="30">
+      <c r="C512" s="65">
         <v>1461371700</v>
       </c>
-      <c r="D512" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E512" s="31" t="s">
+      <c r="D512" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E512" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F512" s="31" t="s">
+      <c r="F512" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G512" s="31" t="s">
+      <c r="G512" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="H512" s="32"/>
-      <c r="I512" s="33" t="s">
+      <c r="H512" s="67"/>
+      <c r="I512" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="J512" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="K512" s="19" t="s">
+      <c r="J512" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="K512" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="L512" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="M512" s="34"/>
+      <c r="L512" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="M512" s="69"/>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="25">
@@ -47044,13 +47283,13 @@
         <v>574</v>
       </c>
       <c r="J516" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K516" s="19" t="s">
         <v>574</v>
       </c>
       <c r="L516" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M516" s="14"/>
     </row>
@@ -47081,13 +47320,13 @@
         <v>531</v>
       </c>
       <c r="J517" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K517" s="19" t="s">
         <v>531</v>
       </c>
       <c r="L517" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M517" s="14"/>
     </row>
@@ -47124,7 +47363,7 @@
         <v>303</v>
       </c>
       <c r="L518" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M518" s="6">
         <v>160</v>
@@ -47167,42 +47406,42 @@
       </c>
       <c r="M519" s="14"/>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A520" s="29">
+    <row r="520" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="64">
         <v>174777860</v>
       </c>
-      <c r="B520" s="30">
+      <c r="B520" s="65">
         <v>1461398100</v>
       </c>
-      <c r="C520" s="30">
+      <c r="C520" s="65">
         <v>1461402900</v>
       </c>
-      <c r="D520" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E520" s="31" t="s">
+      <c r="D520" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E520" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="F520" s="31" t="s">
+      <c r="F520" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="G520" s="31" t="s">
+      <c r="G520" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="H520" s="32"/>
-      <c r="I520" s="33" t="s">
+      <c r="H520" s="67"/>
+      <c r="I520" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="J520" s="33" t="s">
+      <c r="J520" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="K520" s="19" t="s">
+      <c r="K520" s="68" t="s">
         <v>483</v>
       </c>
-      <c r="L520" s="19" t="s">
+      <c r="L520" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="M520" s="34"/>
+      <c r="M520" s="69"/>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="25">
@@ -47265,13 +47504,13 @@
       </c>
       <c r="H522" s="18"/>
       <c r="I522" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J522" s="19" t="s">
         <v>381</v>
       </c>
       <c r="K522" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L522" s="19" t="s">
         <v>381</v>
@@ -47302,16 +47541,16 @@
       </c>
       <c r="H523" s="28"/>
       <c r="I523" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="J523" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="J523" s="19" t="s">
-        <v>798</v>
-      </c>
       <c r="K523" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="L523" s="19" t="s">
         <v>797</v>
-      </c>
-      <c r="L523" s="19" t="s">
-        <v>798</v>
       </c>
       <c r="M523" s="14"/>
     </row>
@@ -47492,13 +47731,13 @@
         <v>333</v>
       </c>
       <c r="J528" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K528" s="19" t="s">
         <v>333</v>
       </c>
       <c r="L528" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M528" s="14"/>
     </row>
@@ -47526,7 +47765,7 @@
       </c>
       <c r="H529" s="23"/>
       <c r="I529" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J529" s="24" t="s">
         <v>663</v>
@@ -47602,13 +47841,13 @@
       </c>
       <c r="H531" s="28"/>
       <c r="I531" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J531" s="19" t="s">
         <v>362</v>
       </c>
       <c r="K531" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L531" s="19" t="s">
         <v>362</v>
@@ -47789,13 +48028,13 @@
       </c>
       <c r="H536" s="18"/>
       <c r="I536" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J536" s="19" t="s">
         <v>417</v>
       </c>
       <c r="K536" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L536" s="19" t="s">
         <v>417</v>
@@ -48011,13 +48250,13 @@
       </c>
       <c r="H542" s="18"/>
       <c r="I542" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J542" s="19" t="s">
         <v>698</v>
       </c>
       <c r="K542" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L542" s="19" t="s">
         <v>698</v>
@@ -48085,55 +48324,55 @@
       </c>
       <c r="H544" s="18"/>
       <c r="I544" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J544" s="19" t="s">
         <v>561</v>
       </c>
       <c r="K544" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L544" s="19" t="s">
         <v>561</v>
       </c>
       <c r="M544" s="14"/>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A545" s="29">
+    <row r="545" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="64">
         <v>174777938</v>
       </c>
-      <c r="B545" s="30">
+      <c r="B545" s="65">
         <v>1461390600</v>
       </c>
-      <c r="C545" s="30">
+      <c r="C545" s="65">
         <v>1461405600</v>
       </c>
-      <c r="D545" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E545" s="31" t="s">
+      <c r="D545" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E545" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F545" s="31" t="s">
+      <c r="F545" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G545" s="31" t="s">
+      <c r="G545" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="H545" s="32"/>
-      <c r="I545" s="33" t="s">
+      <c r="H545" s="67"/>
+      <c r="I545" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="J545" s="33" t="s">
+      <c r="J545" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="K545" s="19" t="s">
+      <c r="K545" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="L545" s="19" t="s">
+      <c r="L545" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="M545" s="34"/>
+      <c r="M545" s="69"/>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="15">
@@ -48238,13 +48477,13 @@
         <v>402</v>
       </c>
       <c r="J548" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K548" s="19" t="s">
         <v>402</v>
       </c>
       <c r="L548" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M548" s="14"/>
     </row>
@@ -48312,13 +48551,13 @@
         <v>394</v>
       </c>
       <c r="J550" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K550" s="19" t="s">
         <v>394</v>
       </c>
       <c r="L550" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M550" s="14"/>
     </row>
@@ -48383,13 +48622,13 @@
       </c>
       <c r="H552" s="18"/>
       <c r="I552" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J552" s="19" t="s">
         <v>752</v>
       </c>
       <c r="K552" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L552" s="19" t="s">
         <v>752</v>
@@ -48509,42 +48748,42 @@
       </c>
       <c r="M555" s="14"/>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A556" s="29">
+    <row r="556" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="64">
         <v>174778490</v>
       </c>
-      <c r="B556" s="30">
+      <c r="B556" s="65">
         <v>1461393300</v>
       </c>
-      <c r="C556" s="30">
+      <c r="C556" s="65">
         <v>1461404700</v>
       </c>
-      <c r="D556" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E556" s="31" t="s">
+      <c r="D556" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E556" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F556" s="31" t="s">
+      <c r="F556" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G556" s="31" t="s">
+      <c r="G556" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="H556" s="32"/>
-      <c r="I556" s="33" t="s">
+      <c r="H556" s="67"/>
+      <c r="I556" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="J556" s="33" t="s">
+      <c r="J556" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="K556" s="19" t="s">
+      <c r="K556" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="L556" s="19" t="s">
+      <c r="L556" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="M556" s="34"/>
+      <c r="M556" s="69"/>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="25">
@@ -48644,16 +48883,16 @@
       </c>
       <c r="H559" s="28"/>
       <c r="I559" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="J559" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="J559" s="19" t="s">
-        <v>805</v>
-      </c>
       <c r="K559" s="19" t="s">
+        <v>803</v>
+      </c>
+      <c r="L559" s="19" t="s">
         <v>804</v>
-      </c>
-      <c r="L559" s="19" t="s">
-        <v>805</v>
       </c>
       <c r="M559" s="14"/>
     </row>
@@ -48733,42 +48972,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A562" s="29">
+    <row r="562" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="64">
         <v>174774120</v>
       </c>
-      <c r="B562" s="30">
+      <c r="B562" s="65">
         <v>1461362100</v>
       </c>
-      <c r="C562" s="30">
+      <c r="C562" s="65">
         <v>1461372300</v>
       </c>
-      <c r="D562" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E562" s="31" t="s">
+      <c r="D562" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E562" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F562" s="31" t="s">
+      <c r="F562" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G562" s="31" t="s">
+      <c r="G562" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="H562" s="32"/>
-      <c r="I562" s="33" t="s">
+      <c r="H562" s="67"/>
+      <c r="I562" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="J562" s="33" t="s">
+      <c r="J562" s="68" t="s">
         <v>505</v>
       </c>
-      <c r="K562" s="19" t="s">
+      <c r="K562" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="L562" s="19" t="s">
+      <c r="L562" s="68" t="s">
         <v>505</v>
       </c>
-      <c r="M562" s="34"/>
+      <c r="M562" s="69"/>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="25">
@@ -48942,13 +49181,13 @@
       </c>
       <c r="H567" s="28"/>
       <c r="I567" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J567" s="19" t="s">
         <v>400</v>
       </c>
       <c r="K567" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L567" s="19" t="s">
         <v>400</v>
@@ -48979,55 +49218,55 @@
       </c>
       <c r="H568" s="18"/>
       <c r="I568" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J568" s="19" t="s">
         <v>390</v>
       </c>
       <c r="K568" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L568" s="19" t="s">
         <v>390</v>
       </c>
       <c r="M568" s="14"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A569" s="29">
+    <row r="569" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="64">
         <v>174778066</v>
       </c>
-      <c r="B569" s="30">
+      <c r="B569" s="65">
         <v>1461391500</v>
       </c>
-      <c r="C569" s="30">
+      <c r="C569" s="65">
         <v>1461404700</v>
       </c>
-      <c r="D569" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E569" s="31" t="s">
+      <c r="D569" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E569" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F569" s="31" t="s">
+      <c r="F569" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G569" s="31" t="s">
+      <c r="G569" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="H569" s="32"/>
-      <c r="I569" s="33" t="s">
+      <c r="H569" s="67"/>
+      <c r="I569" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="J569" s="33" t="s">
+      <c r="J569" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="K569" s="19" t="s">
+      <c r="K569" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="L569" s="19" t="s">
+      <c r="L569" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="M569" s="34"/>
+      <c r="M569" s="69"/>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="15">
@@ -49090,16 +49329,16 @@
       </c>
       <c r="H571" s="28"/>
       <c r="I571" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="J571" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="J571" s="19" t="s">
-        <v>809</v>
-      </c>
       <c r="K571" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="L571" s="19" t="s">
         <v>808</v>
-      </c>
-      <c r="L571" s="19" t="s">
-        <v>809</v>
       </c>
       <c r="M571" s="14"/>
     </row>
@@ -49177,42 +49416,42 @@
       </c>
       <c r="M573" s="14"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A574" s="29">
+    <row r="574" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="64">
         <v>174778444</v>
       </c>
-      <c r="B574" s="30">
+      <c r="B574" s="65">
         <v>1461391800</v>
       </c>
-      <c r="C574" s="30">
+      <c r="C574" s="65">
         <v>1461397200</v>
       </c>
-      <c r="D574" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E574" s="31" t="s">
+      <c r="D574" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E574" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F574" s="31" t="s">
+      <c r="F574" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G574" s="31" t="s">
+      <c r="G574" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="H574" s="32"/>
-      <c r="I574" s="33" t="s">
+      <c r="H574" s="67"/>
+      <c r="I574" s="68" t="s">
         <v>642</v>
       </c>
-      <c r="J574" s="33" t="s">
+      <c r="J574" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="K574" s="19" t="s">
+      <c r="K574" s="68" t="s">
         <v>642</v>
       </c>
-      <c r="L574" s="19" t="s">
+      <c r="L574" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="M574" s="34"/>
+      <c r="M574" s="69"/>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="25">
@@ -49349,13 +49588,13 @@
       </c>
       <c r="H578" s="18"/>
       <c r="I578" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J578" s="19" t="s">
         <v>741</v>
       </c>
       <c r="K578" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L578" s="19" t="s">
         <v>741</v>
@@ -49426,13 +49665,13 @@
         <v>389</v>
       </c>
       <c r="J580" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K580" s="19" t="s">
         <v>389</v>
       </c>
       <c r="L580" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M580" s="14"/>
     </row>
@@ -49497,16 +49736,16 @@
       </c>
       <c r="H582" s="18"/>
       <c r="I582" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="J582" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="J582" s="19" t="s">
-        <v>813</v>
-      </c>
       <c r="K582" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="L582" s="19" t="s">
         <v>812</v>
-      </c>
-      <c r="L582" s="19" t="s">
-        <v>813</v>
       </c>
       <c r="M582" s="14"/>
     </row>
@@ -49608,16 +49847,16 @@
       </c>
       <c r="H585" s="28"/>
       <c r="I585" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="J585" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="J585" s="19" t="s">
-        <v>815</v>
-      </c>
       <c r="K585" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="L585" s="19" t="s">
         <v>814</v>
-      </c>
-      <c r="L585" s="19" t="s">
-        <v>815</v>
       </c>
       <c r="M585" s="14"/>
     </row>
@@ -49660,44 +49899,44 @@
         <v>115</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A587" s="20">
+    <row r="587" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="56">
         <v>174773883</v>
       </c>
-      <c r="B587" s="21">
+      <c r="B587" s="57">
         <v>1461358500</v>
       </c>
-      <c r="C587" s="21">
+      <c r="C587" s="57">
         <v>1461366600</v>
       </c>
-      <c r="D587" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E587" s="22" t="s">
+      <c r="D587" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E587" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F587" s="22" t="s">
+      <c r="F587" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G587" s="22" t="s">
+      <c r="G587" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="H587" s="23" t="s">
+      <c r="H587" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="I587" s="24" t="s">
+      <c r="I587" s="60" t="s">
         <v>670</v>
       </c>
-      <c r="J587" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="K587" s="19" t="s">
+      <c r="J587" s="60" t="s">
+        <v>806</v>
+      </c>
+      <c r="K587" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L587" s="19" t="s">
+      <c r="L587" s="61" t="s">
         <v>534</v>
       </c>
-      <c r="M587" s="6">
+      <c r="M587" s="62">
         <v>5</v>
       </c>
     </row>
@@ -49728,13 +49967,13 @@
         <v>326</v>
       </c>
       <c r="J588" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K588" s="19" t="s">
         <v>326</v>
       </c>
       <c r="L588" s="19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M588" s="14"/>
     </row>
@@ -49836,13 +50075,13 @@
       </c>
       <c r="H591" s="28"/>
       <c r="I591" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J591" s="19" t="s">
         <v>730</v>
       </c>
       <c r="K591" s="19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L591" s="19" t="s">
         <v>730</v>
@@ -49873,13 +50112,13 @@
       </c>
       <c r="H592" s="18"/>
       <c r="I592" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J592" s="19" t="s">
         <v>368</v>
       </c>
       <c r="K592" s="19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L592" s="19" t="s">
         <v>368</v>
@@ -49913,10 +50152,10 @@
         <v>320</v>
       </c>
       <c r="J593" s="24" t="s">
+        <v>818</v>
+      </c>
+      <c r="K593" s="19" t="s">
         <v>819</v>
-      </c>
-      <c r="K593" s="19" t="s">
-        <v>820</v>
       </c>
       <c r="L593" s="19" t="s">
         <v>303</v>
@@ -49925,44 +50164,42 @@
         <v>177</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A594" s="20">
+    <row r="594" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="56">
         <v>174773835</v>
       </c>
-      <c r="B594" s="21">
+      <c r="B594" s="57">
         <v>1461355800</v>
       </c>
-      <c r="C594" s="21">
+      <c r="C594" s="57">
         <v>1461370500</v>
       </c>
-      <c r="D594" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E594" s="22" t="s">
+      <c r="D594" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E594" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F594" s="22" t="s">
+      <c r="F594" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="G594" s="22" t="s">
+      <c r="G594" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="H594" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I594" s="24" t="s">
+      <c r="H594" s="59"/>
+      <c r="I594" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="J594" s="24" t="s">
+      <c r="J594" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="K594" s="19" t="s">
+      <c r="K594" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L594" s="19" t="s">
+      <c r="L594" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="M594" s="6">
+      <c r="M594" s="62">
         <v>50</v>
       </c>
     </row>
@@ -50138,13 +50375,13 @@
       </c>
       <c r="H599" s="28"/>
       <c r="I599" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J599" s="19" t="s">
         <v>374</v>
       </c>
       <c r="K599" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L599" s="19" t="s">
         <v>374</v>
@@ -50212,55 +50449,57 @@
       </c>
       <c r="H601" s="28"/>
       <c r="I601" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J601" s="19" t="s">
         <v>714</v>
       </c>
       <c r="K601" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L601" s="19" t="s">
         <v>714</v>
       </c>
       <c r="M601" s="14"/>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A602" s="29">
+    <row r="602" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="48">
         <v>174774256</v>
       </c>
-      <c r="B602" s="30">
+      <c r="B602" s="49">
         <v>1461359700</v>
       </c>
-      <c r="C602" s="30">
+      <c r="C602" s="49">
         <v>1461376200</v>
       </c>
-      <c r="D602" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E602" s="31" t="s">
+      <c r="D602" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E602" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F602" s="31" t="s">
+      <c r="F602" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="G602" s="31" t="s">
+      <c r="G602" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="H602" s="32"/>
-      <c r="I602" s="33" t="s">
+      <c r="H602" s="51" t="s">
+        <v>888</v>
+      </c>
+      <c r="I602" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="J602" s="33" t="s">
+      <c r="J602" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="K602" s="19" t="s">
+      <c r="K602" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="L602" s="19" t="s">
+      <c r="L602" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="M602" s="34"/>
+      <c r="M602" s="54"/>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="25">
@@ -50449,44 +50688,42 @@
         <v>119</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A608" s="20">
+    <row r="608" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="56">
         <v>174774422</v>
       </c>
-      <c r="B608" s="21">
+      <c r="B608" s="57">
         <v>1461355200</v>
       </c>
-      <c r="C608" s="21">
+      <c r="C608" s="57">
         <v>1461367200</v>
       </c>
-      <c r="D608" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E608" s="22" t="s">
+      <c r="D608" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E608" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="F608" s="22" t="s">
+      <c r="F608" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G608" s="22" t="s">
+      <c r="G608" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="H608" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I608" s="24" t="s">
+      <c r="H608" s="59"/>
+      <c r="I608" s="60" t="s">
         <v>455</v>
       </c>
-      <c r="J608" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="K608" s="19" t="s">
+      <c r="J608" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="K608" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L608" s="19" t="s">
+      <c r="L608" s="61" t="s">
         <v>571</v>
       </c>
-      <c r="M608" s="6">
+      <c r="M608" s="62">
         <v>60</v>
       </c>
     </row>
@@ -50514,13 +50751,13 @@
       </c>
       <c r="H609" s="28"/>
       <c r="I609" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J609" s="19" t="s">
         <v>457</v>
       </c>
       <c r="K609" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L609" s="19" t="s">
         <v>457</v>
@@ -50625,16 +50862,16 @@
       </c>
       <c r="H612" s="18"/>
       <c r="I612" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="J612" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="J612" s="19" t="s">
-        <v>824</v>
-      </c>
       <c r="K612" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="L612" s="19" t="s">
         <v>823</v>
-      </c>
-      <c r="L612" s="19" t="s">
-        <v>824</v>
       </c>
       <c r="M612" s="14"/>
     </row>
@@ -50749,42 +50986,42 @@
       </c>
       <c r="M615" s="14"/>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A616" s="29">
+    <row r="616" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="64">
         <v>174777864</v>
       </c>
-      <c r="B616" s="30">
+      <c r="B616" s="65">
         <v>1461400200</v>
       </c>
-      <c r="C616" s="30">
+      <c r="C616" s="65">
         <v>1461412200</v>
       </c>
-      <c r="D616" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E616" s="31" t="s">
+      <c r="D616" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E616" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F616" s="31" t="s">
+      <c r="F616" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G616" s="31" t="s">
+      <c r="G616" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="H616" s="32"/>
-      <c r="I616" s="33" t="s">
+      <c r="H616" s="67"/>
+      <c r="I616" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="J616" s="33" t="s">
+      <c r="J616" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="K616" s="19" t="s">
+      <c r="K616" s="68" t="s">
         <v>451</v>
       </c>
-      <c r="L616" s="19" t="s">
+      <c r="L616" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="M616" s="34"/>
+      <c r="M616" s="69"/>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617" s="25">
@@ -50813,13 +51050,13 @@
         <v>617</v>
       </c>
       <c r="J617" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K617" s="19" t="s">
         <v>617</v>
       </c>
       <c r="L617" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M617" s="14"/>
     </row>
@@ -50850,13 +51087,13 @@
         <v>503</v>
       </c>
       <c r="J618" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K618" s="19" t="s">
         <v>503</v>
       </c>
       <c r="L618" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M618" s="14"/>
     </row>
@@ -50887,10 +51124,10 @@
         <v>600</v>
       </c>
       <c r="J619" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="K619" s="19" t="s">
         <v>827</v>
-      </c>
-      <c r="K619" s="19" t="s">
-        <v>828</v>
       </c>
       <c r="L619" s="19" t="s">
         <v>303</v>
@@ -50899,44 +51136,42 @@
         <v>98</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A620" s="20">
+    <row r="620" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="56">
         <v>174773456</v>
       </c>
-      <c r="B620" s="21">
+      <c r="B620" s="57">
         <v>1461356400</v>
       </c>
-      <c r="C620" s="21">
+      <c r="C620" s="57">
         <v>1461363600</v>
       </c>
-      <c r="D620" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E620" s="22" t="s">
+      <c r="D620" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E620" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F620" s="22" t="s">
+      <c r="F620" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G620" s="22" t="s">
+      <c r="G620" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="H620" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I620" s="24" t="s">
+      <c r="H620" s="59"/>
+      <c r="I620" s="60" t="s">
         <v>601</v>
       </c>
-      <c r="J620" s="24" t="s">
+      <c r="J620" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="K620" s="19" t="s">
+      <c r="K620" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L620" s="19" t="s">
+      <c r="L620" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="M620" s="6">
+      <c r="M620" s="62">
         <v>40</v>
       </c>
     </row>
@@ -51112,13 +51347,13 @@
       </c>
       <c r="H625" s="28"/>
       <c r="I625" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J625" s="19" t="s">
         <v>442</v>
       </c>
       <c r="K625" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L625" s="19" t="s">
         <v>442</v>
@@ -51189,13 +51424,13 @@
         <v>328</v>
       </c>
       <c r="J627" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K627" s="19" t="s">
         <v>328</v>
       </c>
       <c r="L627" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M627" s="14"/>
     </row>
@@ -51223,16 +51458,16 @@
       </c>
       <c r="H628" s="18"/>
       <c r="I628" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="J628" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="J628" s="19" t="s">
-        <v>830</v>
-      </c>
       <c r="K628" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="L628" s="19" t="s">
         <v>829</v>
-      </c>
-      <c r="L628" s="19" t="s">
-        <v>830</v>
       </c>
       <c r="M628" s="14"/>
     </row>
@@ -51260,13 +51495,13 @@
       </c>
       <c r="H629" s="28"/>
       <c r="I629" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J629" s="19" t="s">
         <v>440</v>
       </c>
       <c r="K629" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L629" s="19" t="s">
         <v>440</v>
@@ -51334,13 +51569,13 @@
       </c>
       <c r="H631" s="28"/>
       <c r="I631" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J631" s="19" t="s">
         <v>383</v>
       </c>
       <c r="K631" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L631" s="19" t="s">
         <v>383</v>
@@ -51374,13 +51609,13 @@
         <v>503</v>
       </c>
       <c r="J632" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K632" s="19" t="s">
         <v>503</v>
       </c>
       <c r="L632" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M632" s="14"/>
     </row>
@@ -51408,13 +51643,13 @@
       </c>
       <c r="H633" s="28"/>
       <c r="I633" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J633" s="19" t="s">
         <v>616</v>
       </c>
       <c r="K633" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L633" s="19" t="s">
         <v>616</v>
@@ -51445,16 +51680,16 @@
       </c>
       <c r="H634" s="18"/>
       <c r="I634" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="J634" s="19" t="s">
         <v>833</v>
       </c>
-      <c r="J634" s="19" t="s">
-        <v>834</v>
-      </c>
       <c r="K634" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="L634" s="19" t="s">
         <v>833</v>
-      </c>
-      <c r="L634" s="19" t="s">
-        <v>834</v>
       </c>
       <c r="M634" s="14"/>
     </row>
@@ -51519,13 +51754,13 @@
       </c>
       <c r="H636" s="18"/>
       <c r="I636" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J636" s="19" t="s">
         <v>555</v>
       </c>
       <c r="K636" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L636" s="19" t="s">
         <v>555</v>
@@ -51556,16 +51791,16 @@
       </c>
       <c r="H637" s="28"/>
       <c r="I637" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="J637" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="J637" s="19" t="s">
-        <v>836</v>
-      </c>
       <c r="K637" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="L637" s="19" t="s">
         <v>835</v>
-      </c>
-      <c r="L637" s="19" t="s">
-        <v>836</v>
       </c>
       <c r="M637" s="14"/>
     </row>
@@ -51667,16 +51902,16 @@
       </c>
       <c r="H640" s="18"/>
       <c r="I640" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="J640" s="19" t="s">
         <v>837</v>
       </c>
-      <c r="J640" s="19" t="s">
-        <v>838</v>
-      </c>
       <c r="K640" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="L640" s="19" t="s">
         <v>837</v>
-      </c>
-      <c r="L640" s="19" t="s">
-        <v>838</v>
       </c>
       <c r="M640" s="14"/>
     </row>
@@ -51744,13 +51979,13 @@
         <v>462</v>
       </c>
       <c r="J642" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K642" s="19" t="s">
         <v>462</v>
       </c>
       <c r="L642" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M642" s="14"/>
     </row>
@@ -51781,13 +52016,13 @@
         <v>409</v>
       </c>
       <c r="J643" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K643" s="19" t="s">
         <v>409</v>
       </c>
       <c r="L643" s="19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M643" s="14"/>
     </row>
@@ -51818,13 +52053,13 @@
         <v>320</v>
       </c>
       <c r="J644" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K644" s="19" t="s">
         <v>320</v>
       </c>
       <c r="L644" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M644" s="14"/>
     </row>
@@ -51904,42 +52139,42 @@
       </c>
       <c r="M646" s="14"/>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A647" s="29">
+    <row r="647" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="64">
         <v>174778402</v>
       </c>
-      <c r="B647" s="30">
+      <c r="B647" s="65">
         <v>1461398400</v>
       </c>
-      <c r="C647" s="30">
+      <c r="C647" s="65">
         <v>1461410400</v>
       </c>
-      <c r="D647" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E647" s="31" t="s">
+      <c r="D647" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E647" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F647" s="31" t="s">
+      <c r="F647" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G647" s="31" t="s">
+      <c r="G647" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="H647" s="32"/>
-      <c r="I647" s="33" t="s">
+      <c r="H647" s="67"/>
+      <c r="I647" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="J647" s="33" t="s">
+      <c r="J647" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="K647" s="19" t="s">
+      <c r="K647" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="L647" s="19" t="s">
+      <c r="L647" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="M647" s="34"/>
+      <c r="M647" s="69"/>
     </row>
     <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" s="15">
@@ -52002,16 +52237,16 @@
       </c>
       <c r="H649" s="28"/>
       <c r="I649" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="J649" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="J649" s="19" t="s">
-        <v>843</v>
-      </c>
       <c r="K649" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="L649" s="19" t="s">
         <v>842</v>
-      </c>
-      <c r="L649" s="19" t="s">
-        <v>843</v>
       </c>
       <c r="M649" s="14"/>
     </row>
@@ -52042,13 +52277,13 @@
         <v>745</v>
       </c>
       <c r="J650" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K650" s="19" t="s">
         <v>745</v>
       </c>
       <c r="L650" s="19" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M650" s="14"/>
     </row>
@@ -52079,10 +52314,10 @@
         <v>370</v>
       </c>
       <c r="J651" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="K651" s="19" t="s">
         <v>845</v>
-      </c>
-      <c r="K651" s="19" t="s">
-        <v>846</v>
       </c>
       <c r="L651" s="19" t="s">
         <v>303</v>
@@ -52115,13 +52350,13 @@
       </c>
       <c r="H652" s="18"/>
       <c r="I652" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J652" s="19" t="s">
         <v>453</v>
       </c>
       <c r="K652" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L652" s="19" t="s">
         <v>453</v>
@@ -52155,13 +52390,13 @@
         <v>357</v>
       </c>
       <c r="J653" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K653" s="19" t="s">
         <v>357</v>
       </c>
       <c r="L653" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M653" s="14"/>
     </row>
@@ -52241,42 +52476,42 @@
       </c>
       <c r="M655" s="14"/>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A656" s="29">
+    <row r="656" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="64">
         <v>174778172</v>
       </c>
-      <c r="B656" s="30">
+      <c r="B656" s="65">
         <v>1461386700</v>
       </c>
-      <c r="C656" s="30">
+      <c r="C656" s="65">
         <v>1461394800</v>
       </c>
-      <c r="D656" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E656" s="31" t="s">
+      <c r="D656" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E656" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F656" s="31" t="s">
+      <c r="F656" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G656" s="31" t="s">
+      <c r="G656" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="H656" s="32"/>
-      <c r="I656" s="33" t="s">
-        <v>769</v>
-      </c>
-      <c r="J656" s="33" t="s">
+      <c r="H656" s="67"/>
+      <c r="I656" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="J656" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="K656" s="19" t="s">
-        <v>769</v>
-      </c>
-      <c r="L656" s="19" t="s">
+      <c r="K656" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="L656" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="M656" s="34"/>
+      <c r="M656" s="69"/>
     </row>
     <row r="657" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A657" s="25">
@@ -52524,13 +52759,13 @@
       </c>
       <c r="H663" s="28"/>
       <c r="I663" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J663" s="19" t="s">
         <v>685</v>
       </c>
       <c r="K663" s="19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L663" s="19" t="s">
         <v>685</v>
@@ -52564,10 +52799,10 @@
         <v>432</v>
       </c>
       <c r="J664" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="K664" s="19" t="s">
         <v>850</v>
-      </c>
-      <c r="K664" s="19" t="s">
-        <v>851</v>
       </c>
       <c r="L664" s="19" t="s">
         <v>303</v>
@@ -52576,44 +52811,44 @@
         <v>146</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A665" s="20">
+    <row r="665" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="56">
         <v>174773464</v>
       </c>
-      <c r="B665" s="21">
+      <c r="B665" s="57">
         <v>1461357900</v>
       </c>
-      <c r="C665" s="21">
+      <c r="C665" s="57">
         <v>1461367500</v>
       </c>
-      <c r="D665" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E665" s="22" t="s">
+      <c r="D665" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E665" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F665" s="22" t="s">
+      <c r="F665" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G665" s="22" t="s">
+      <c r="G665" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="H665" s="23" t="s">
+      <c r="H665" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I665" s="24" t="s">
+      <c r="I665" s="60" t="s">
         <v>692</v>
       </c>
-      <c r="J665" s="24" t="s">
+      <c r="J665" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="K665" s="19" t="s">
+      <c r="K665" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="L665" s="19" t="s">
+      <c r="L665" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="M665" s="6">
+      <c r="M665" s="62">
         <v>15</v>
       </c>
     </row>
@@ -52792,13 +53027,13 @@
         <v>317</v>
       </c>
       <c r="J670" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K670" s="19" t="s">
         <v>317</v>
       </c>
       <c r="L670" s="19" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M670" s="14"/>
     </row>
@@ -52826,13 +53061,13 @@
       </c>
       <c r="H671" s="28"/>
       <c r="I671" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J671" s="19" t="s">
         <v>513</v>
       </c>
       <c r="K671" s="19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L671" s="19" t="s">
         <v>513</v>
@@ -52952,42 +53187,42 @@
       </c>
       <c r="M674" s="14"/>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A675" s="29">
+    <row r="675" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="64">
         <v>174778394</v>
       </c>
-      <c r="B675" s="30">
+      <c r="B675" s="65">
         <v>1461396600</v>
       </c>
-      <c r="C675" s="30">
+      <c r="C675" s="65">
         <v>1461405900</v>
       </c>
-      <c r="D675" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E675" s="31" t="s">
+      <c r="D675" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E675" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="F675" s="31" t="s">
+      <c r="F675" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G675" s="31" t="s">
+      <c r="G675" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="H675" s="32"/>
-      <c r="I675" s="33" t="s">
+      <c r="H675" s="67"/>
+      <c r="I675" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="J675" s="33" t="s">
+      <c r="J675" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="K675" s="19" t="s">
+      <c r="K675" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="L675" s="19" t="s">
+      <c r="L675" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="M675" s="34"/>
+      <c r="M675" s="69"/>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A676" s="15">
@@ -53050,16 +53285,16 @@
       </c>
       <c r="H677" s="28"/>
       <c r="I677" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="J677" s="19" t="s">
         <v>854</v>
       </c>
-      <c r="J677" s="19" t="s">
-        <v>855</v>
-      </c>
       <c r="K677" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="L677" s="19" t="s">
         <v>854</v>
-      </c>
-      <c r="L677" s="19" t="s">
-        <v>855</v>
       </c>
       <c r="M677" s="14"/>
     </row>
@@ -53174,42 +53409,42 @@
       </c>
       <c r="M680" s="14"/>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A681" s="29">
+    <row r="681" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="64">
         <v>174777424</v>
       </c>
-      <c r="B681" s="30">
+      <c r="B681" s="65">
         <v>1461388500</v>
       </c>
-      <c r="C681" s="30">
+      <c r="C681" s="65">
         <v>1461396900</v>
       </c>
-      <c r="D681" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E681" s="31" t="s">
+      <c r="D681" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E681" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F681" s="31" t="s">
+      <c r="F681" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G681" s="31" t="s">
+      <c r="G681" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="H681" s="32"/>
-      <c r="I681" s="33" t="s">
+      <c r="H681" s="67"/>
+      <c r="I681" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="J681" s="33" t="s">
+      <c r="J681" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="K681" s="19" t="s">
+      <c r="K681" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="L681" s="19" t="s">
+      <c r="L681" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="M681" s="34"/>
+      <c r="M681" s="69"/>
     </row>
     <row r="682" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A682" s="15">
@@ -53346,16 +53581,16 @@
       </c>
       <c r="H685" s="28"/>
       <c r="I685" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J685" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K685" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L685" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M685" s="14"/>
     </row>
@@ -53386,10 +53621,10 @@
         <v>659</v>
       </c>
       <c r="J686" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="K686" s="19" t="s">
         <v>856</v>
-      </c>
-      <c r="K686" s="19" t="s">
-        <v>857</v>
       </c>
       <c r="L686" s="19" t="s">
         <v>303</v>
@@ -53607,16 +53842,16 @@
       </c>
       <c r="H692" s="18"/>
       <c r="I692" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J692" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K692" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L692" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M692" s="14"/>
     </row>
@@ -53696,42 +53931,42 @@
       </c>
       <c r="M694" s="14"/>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A695" s="29">
+    <row r="695" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A695" s="64">
         <v>174777734</v>
       </c>
-      <c r="B695" s="30">
+      <c r="B695" s="65">
         <v>1461384900</v>
       </c>
-      <c r="C695" s="30">
+      <c r="C695" s="65">
         <v>1461394800</v>
       </c>
-      <c r="D695" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E695" s="31" t="s">
+      <c r="D695" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E695" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="F695" s="31" t="s">
+      <c r="F695" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G695" s="31" t="s">
+      <c r="G695" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="H695" s="32"/>
-      <c r="I695" s="33" t="s">
+      <c r="H695" s="67"/>
+      <c r="I695" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="J695" s="33" t="s">
+      <c r="J695" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="K695" s="19" t="s">
+      <c r="K695" s="68" t="s">
         <v>403</v>
       </c>
-      <c r="L695" s="19" t="s">
+      <c r="L695" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="M695" s="34"/>
+      <c r="M695" s="69"/>
     </row>
     <row r="696" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A696" s="15">
@@ -53834,13 +54069,13 @@
         <v>463</v>
       </c>
       <c r="J698" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K698" s="19" t="s">
         <v>463</v>
       </c>
       <c r="L698" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M698" s="14"/>
     </row>
@@ -53871,13 +54106,13 @@
         <v>653</v>
       </c>
       <c r="J699" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K699" s="19" t="s">
         <v>653</v>
       </c>
       <c r="L699" s="19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M699" s="14"/>
     </row>
@@ -53908,10 +54143,10 @@
         <v>588</v>
       </c>
       <c r="J700" s="24" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K700" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L700" s="19" t="s">
         <v>303</v>
@@ -53920,42 +54155,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A701" s="29">
+    <row r="701" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="64">
         <v>174778290</v>
       </c>
-      <c r="B701" s="30">
+      <c r="B701" s="65">
         <v>1461388500</v>
       </c>
-      <c r="C701" s="30">
+      <c r="C701" s="65">
         <v>1461393900</v>
       </c>
-      <c r="D701" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E701" s="31" t="s">
+      <c r="D701" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E701" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F701" s="31" t="s">
+      <c r="F701" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G701" s="31" t="s">
+      <c r="G701" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="H701" s="32"/>
-      <c r="I701" s="33" t="s">
+      <c r="H701" s="67"/>
+      <c r="I701" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="J701" s="33" t="s">
+      <c r="J701" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="K701" s="19" t="s">
+      <c r="K701" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="L701" s="19" t="s">
+      <c r="L701" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="M701" s="34"/>
+      <c r="M701" s="69"/>
     </row>
     <row r="702" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A702" s="15">
@@ -54094,13 +54329,13 @@
       </c>
       <c r="H705" s="28"/>
       <c r="I705" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J705" s="19" t="s">
         <v>441</v>
       </c>
       <c r="K705" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L705" s="19" t="s">
         <v>441</v>
@@ -54131,13 +54366,13 @@
       </c>
       <c r="H706" s="18"/>
       <c r="I706" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J706" s="19" t="s">
         <v>699</v>
       </c>
       <c r="K706" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L706" s="19" t="s">
         <v>699</v>
@@ -54242,55 +54477,57 @@
       </c>
       <c r="H709" s="28"/>
       <c r="I709" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="J709" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="J709" s="19" t="s">
-        <v>864</v>
-      </c>
       <c r="K709" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="L709" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="L709" s="19" t="s">
-        <v>864</v>
-      </c>
       <c r="M709" s="14"/>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A710" s="29">
+    <row r="710" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A710" s="48">
         <v>174777592</v>
       </c>
-      <c r="B710" s="30">
+      <c r="B710" s="49">
         <v>1461393000</v>
       </c>
-      <c r="C710" s="30">
+      <c r="C710" s="49">
         <v>1461407700</v>
       </c>
-      <c r="D710" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E710" s="31" t="s">
+      <c r="D710" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E710" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F710" s="31" t="s">
+      <c r="F710" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G710" s="31" t="s">
+      <c r="G710" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="H710" s="32"/>
-      <c r="I710" s="33" t="s">
+      <c r="H710" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="I710" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="J710" s="33" t="s">
+      <c r="J710" s="52" t="s">
         <v>578</v>
       </c>
-      <c r="K710" s="19" t="s">
+      <c r="K710" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="L710" s="19" t="s">
+      <c r="L710" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="M710" s="34"/>
+      <c r="M710" s="54"/>
     </row>
     <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711" s="25">
@@ -54353,16 +54590,16 @@
       </c>
       <c r="H712" s="18"/>
       <c r="I712" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="J712" s="19" t="s">
         <v>865</v>
       </c>
-      <c r="J712" s="19" t="s">
-        <v>866</v>
-      </c>
       <c r="K712" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="L712" s="19" t="s">
         <v>865</v>
-      </c>
-      <c r="L712" s="19" t="s">
-        <v>866</v>
       </c>
       <c r="M712" s="14"/>
     </row>
@@ -54440,42 +54677,42 @@
       </c>
       <c r="M714" s="14"/>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A715" s="29">
+    <row r="715" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="64">
         <v>174777642</v>
       </c>
-      <c r="B715" s="30">
+      <c r="B715" s="65">
         <v>1461383100</v>
       </c>
-      <c r="C715" s="30">
+      <c r="C715" s="65">
         <v>1461402000</v>
       </c>
-      <c r="D715" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E715" s="31" t="s">
+      <c r="D715" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E715" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F715" s="31" t="s">
+      <c r="F715" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G715" s="31" t="s">
+      <c r="G715" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="H715" s="32"/>
-      <c r="I715" s="33" t="s">
+      <c r="H715" s="67"/>
+      <c r="I715" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="J715" s="33" t="s">
+      <c r="J715" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="K715" s="19" t="s">
+      <c r="K715" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="L715" s="19" t="s">
+      <c r="L715" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="M715" s="34"/>
+      <c r="M715" s="69"/>
     </row>
     <row r="716" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A716" s="15">
@@ -54538,13 +54775,13 @@
       </c>
       <c r="H717" s="28"/>
       <c r="I717" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J717" s="19" t="s">
         <v>397</v>
       </c>
       <c r="K717" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L717" s="19" t="s">
         <v>397</v>
@@ -54625,42 +54862,42 @@
       </c>
       <c r="M719" s="14"/>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A720" s="29">
+    <row r="720" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="64">
         <v>174777942</v>
       </c>
-      <c r="B720" s="30">
+      <c r="B720" s="65">
         <v>1461396300</v>
       </c>
-      <c r="C720" s="30">
+      <c r="C720" s="65">
         <v>1461407100</v>
       </c>
-      <c r="D720" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E720" s="31" t="s">
+      <c r="D720" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E720" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F720" s="31" t="s">
+      <c r="F720" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G720" s="31" t="s">
+      <c r="G720" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="H720" s="32"/>
-      <c r="I720" s="33" t="s">
+      <c r="H720" s="67"/>
+      <c r="I720" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="J720" s="33" t="s">
+      <c r="J720" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="K720" s="19" t="s">
+      <c r="K720" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="L720" s="19" t="s">
+      <c r="L720" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="M720" s="34"/>
+      <c r="M720" s="69"/>
     </row>
     <row r="721" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A721" s="25">
@@ -54723,55 +54960,57 @@
       </c>
       <c r="H722" s="18"/>
       <c r="I722" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J722" s="19" t="s">
         <v>566</v>
       </c>
       <c r="K722" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L722" s="19" t="s">
         <v>566</v>
       </c>
       <c r="M722" s="14"/>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A723" s="29">
+    <row r="723" spans="1:13" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="48">
         <v>174774156</v>
       </c>
-      <c r="B723" s="30">
+      <c r="B723" s="49">
         <v>1461365700</v>
       </c>
-      <c r="C723" s="30">
+      <c r="C723" s="49">
         <v>1461378000</v>
       </c>
-      <c r="D723" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E723" s="31" t="s">
+      <c r="D723" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E723" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F723" s="31" t="s">
+      <c r="F723" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G723" s="31" t="s">
+      <c r="G723" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="H723" s="32"/>
-      <c r="I723" s="33" t="s">
+      <c r="H723" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="I723" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="J723" s="33" t="s">
+      <c r="J723" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="K723" s="19" t="s">
+      <c r="K723" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="L723" s="19" t="s">
+      <c r="L723" s="53" t="s">
         <v>649</v>
       </c>
-      <c r="M723" s="34"/>
+      <c r="M723" s="54"/>
     </row>
     <row r="724" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A724" s="15">
@@ -54911,13 +55150,13 @@
         <v>604</v>
       </c>
       <c r="J727" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K727" s="19" t="s">
         <v>604</v>
       </c>
       <c r="L727" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M727" s="14"/>
     </row>
@@ -54948,13 +55187,13 @@
         <v>528</v>
       </c>
       <c r="J728" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K728" s="19" t="s">
         <v>528</v>
       </c>
       <c r="L728" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M728" s="14"/>
     </row>
@@ -54991,7 +55230,7 @@
         <v>303</v>
       </c>
       <c r="L729" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M729" s="6">
         <v>85</v>
@@ -55034,42 +55273,42 @@
       </c>
       <c r="M730" s="14"/>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A731" s="29">
+    <row r="731" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="64">
         <v>174778272</v>
       </c>
-      <c r="B731" s="30">
+      <c r="B731" s="65">
         <v>1461394200</v>
       </c>
-      <c r="C731" s="30">
+      <c r="C731" s="65">
         <v>1461404700</v>
       </c>
-      <c r="D731" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E731" s="31" t="s">
+      <c r="D731" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E731" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="F731" s="31" t="s">
+      <c r="F731" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G731" s="31" t="s">
+      <c r="G731" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="H731" s="32"/>
-      <c r="I731" s="33" t="s">
+      <c r="H731" s="67"/>
+      <c r="I731" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="J731" s="33" t="s">
+      <c r="J731" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="K731" s="19" t="s">
+      <c r="K731" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="L731" s="19" t="s">
+      <c r="L731" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="M731" s="34"/>
+      <c r="M731" s="69"/>
     </row>
     <row r="732" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A732" s="15">
@@ -55132,16 +55371,16 @@
       </c>
       <c r="H733" s="28"/>
       <c r="I733" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="J733" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="J733" s="19" t="s">
-        <v>871</v>
-      </c>
       <c r="K733" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="L733" s="19" t="s">
         <v>870</v>
-      </c>
-      <c r="L733" s="19" t="s">
-        <v>871</v>
       </c>
       <c r="M733" s="14"/>
     </row>
@@ -55221,66 +55460,66 @@
       </c>
       <c r="M735" s="14"/>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A736" s="29">
+    <row r="736" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A736" s="74">
         <v>174777766</v>
       </c>
-      <c r="B736" s="30">
+      <c r="B736" s="75">
         <v>1461401700</v>
       </c>
-      <c r="C736" s="30">
+      <c r="C736" s="75">
         <v>1461410100</v>
       </c>
-      <c r="D736" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E736" s="31" t="s">
+      <c r="D736" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E736" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="F736" s="31" t="s">
+      <c r="F736" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="G736" s="31" t="s">
+      <c r="G736" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="H736" s="32"/>
-      <c r="I736" s="33" t="s">
+      <c r="H736" s="77"/>
+      <c r="I736" s="78" t="s">
         <v>584</v>
       </c>
-      <c r="J736" s="33" t="s">
+      <c r="J736" s="78" t="s">
         <v>517</v>
       </c>
-      <c r="K736" s="19" t="s">
+      <c r="K736" s="78" t="s">
         <v>584</v>
       </c>
-      <c r="L736" s="19" t="s">
+      <c r="L736" s="78" t="s">
         <v>517</v>
       </c>
-      <c r="M736" s="34"/>
+      <c r="M736" s="79"/>
     </row>
     <row r="737" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A737" s="25">
+      <c r="A737" s="70">
         <v>174777760</v>
       </c>
-      <c r="B737" s="26">
+      <c r="B737" s="71">
         <v>1461413700</v>
       </c>
-      <c r="C737" s="26">
+      <c r="C737" s="71">
         <v>1461423000</v>
       </c>
-      <c r="D737" s="27" t="s">
+      <c r="D737" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E737" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F737" s="27" t="s">
+      <c r="E737" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F737" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="G737" s="27" t="s">
+      <c r="G737" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="H737" s="28"/>
+      <c r="H737" s="73"/>
       <c r="I737" s="19" t="s">
         <v>424</v>
       </c>
@@ -55319,13 +55558,13 @@
       </c>
       <c r="H738" s="18"/>
       <c r="I738" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J738" s="19" t="s">
         <v>681</v>
       </c>
       <c r="K738" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L738" s="19" t="s">
         <v>681</v>
@@ -55393,55 +55632,55 @@
       </c>
       <c r="H740" s="18"/>
       <c r="I740" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J740" s="19" t="s">
         <v>485</v>
       </c>
       <c r="K740" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L740" s="19" t="s">
         <v>485</v>
       </c>
       <c r="M740" s="14"/>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A741" s="29">
+    <row r="741" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="64">
         <v>174778456</v>
       </c>
-      <c r="B741" s="30">
+      <c r="B741" s="65">
         <v>1461394800</v>
       </c>
-      <c r="C741" s="30">
+      <c r="C741" s="65">
         <v>1461414900</v>
       </c>
-      <c r="D741" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E741" s="31" t="s">
+      <c r="D741" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E741" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="F741" s="31" t="s">
+      <c r="F741" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G741" s="31" t="s">
+      <c r="G741" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="H741" s="32"/>
-      <c r="I741" s="33" t="s">
+      <c r="H741" s="67"/>
+      <c r="I741" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="J741" s="33" t="s">
+      <c r="J741" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="K741" s="19" t="s">
+      <c r="K741" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="L741" s="19" t="s">
+      <c r="L741" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="M741" s="34"/>
+      <c r="M741" s="69"/>
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A742" s="15">
@@ -55470,13 +55709,13 @@
         <v>518</v>
       </c>
       <c r="J742" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K742" s="19" t="s">
         <v>518</v>
       </c>
       <c r="L742" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M742" s="14"/>
     </row>
@@ -55504,16 +55743,16 @@
       </c>
       <c r="H743" s="28"/>
       <c r="I743" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J743" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K743" s="19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L743" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="M743" s="14"/>
     </row>
@@ -55547,10 +55786,10 @@
         <v>417</v>
       </c>
       <c r="K744" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="L744" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="L744" s="19" t="s">
-        <v>876</v>
       </c>
       <c r="M744" s="6">
         <v>164</v>
@@ -55593,42 +55832,42 @@
       </c>
       <c r="M745" s="14"/>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A746" s="29">
+    <row r="746" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="64">
         <v>174778048</v>
       </c>
-      <c r="B746" s="30">
+      <c r="B746" s="65">
         <v>1461400500</v>
       </c>
-      <c r="C746" s="30">
+      <c r="C746" s="65">
         <v>1461414000</v>
       </c>
-      <c r="D746" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E746" s="31" t="s">
+      <c r="D746" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E746" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F746" s="31" t="s">
+      <c r="F746" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G746" s="31" t="s">
+      <c r="G746" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="H746" s="32"/>
-      <c r="I746" s="33" t="s">
+      <c r="H746" s="67"/>
+      <c r="I746" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="J746" s="33" t="s">
+      <c r="J746" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="K746" s="19" t="s">
+      <c r="K746" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="L746" s="19" t="s">
+      <c r="L746" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="M746" s="34"/>
+      <c r="M746" s="69"/>
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A747" s="25">
@@ -55657,13 +55896,13 @@
         <v>353</v>
       </c>
       <c r="J747" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K747" s="19" t="s">
         <v>353</v>
       </c>
       <c r="L747" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M747" s="14"/>
     </row>
